--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,29 +4,40 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="home_notice_list" sheetId="8" r:id="rId1"/>
-    <sheet name="home_notice_detail" sheetId="7" r:id="rId2"/>
-    <sheet name="home_menu" sheetId="10" r:id="rId3"/>
+    <sheet name="home_menu" sheetId="10" r:id="rId1"/>
+    <sheet name="home_notice_list" sheetId="8" r:id="rId2"/>
+    <sheet name="home_notice_detail" sheetId="7" r:id="rId3"/>
     <sheet name="lease_loose_communityList" sheetId="9" r:id="rId4"/>
     <sheet name="lease_loose_index" sheetId="11" r:id="rId5"/>
-    <sheet name="lease_loose_doadd" sheetId="12" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId7"/>
-    <sheet name="lease_rentapply_lists" sheetId="1" r:id="rId8"/>
-    <sheet name="lease_rentapply_house" sheetId="5" r:id="rId9"/>
-    <sheet name="lease_rentapply_add" sheetId="4" r:id="rId10"/>
-    <sheet name="lease_rentapply_doadd" sheetId="3" r:id="rId11"/>
-    <sheet name="lease_rentapply_del" sheetId="2" r:id="rId12"/>
-    <sheet name="lease_rentapply_show" sheetId="6" r:id="rId13"/>
+    <sheet name="lease_loose_submit" sheetId="12" r:id="rId6"/>
+    <sheet name="lease_loose_index_edit" sheetId="13" r:id="rId7"/>
+    <sheet name="lease_loose_submit_edit" sheetId="17" r:id="rId8"/>
+    <sheet name="lease_rentapply_lists" sheetId="1" r:id="rId9"/>
+    <sheet name="lease_rentapply_checkhouse" sheetId="15" r:id="rId10"/>
+    <sheet name="lease_rentapply_listcount" sheetId="16" r:id="rId11"/>
+    <sheet name="lease_rentapply_house" sheetId="5" r:id="rId12"/>
+    <sheet name="lease_rentapply_add" sheetId="4" r:id="rId13"/>
+    <sheet name="lease_rentapply_doadd" sheetId="3" r:id="rId14"/>
+    <sheet name="lease_rentapply_show" sheetId="6" r:id="rId15"/>
+    <sheet name="lease_rentapply_check" sheetId="25" r:id="rId16"/>
+    <sheet name="lease_rentapply_docheck_back" sheetId="23" r:id="rId17"/>
+    <sheet name="lease_rentapply_edit_01" sheetId="18" r:id="rId18"/>
+    <sheet name="lease_rentapply_doedit_01" sheetId="19" r:id="rId19"/>
+    <sheet name="lease_rentapply_edit_02" sheetId="20" r:id="rId20"/>
+    <sheet name="lease_rentapply_doedit_02" sheetId="21" r:id="rId21"/>
+    <sheet name="lease_rentapply_docheck_pass" sheetId="26" r:id="rId22"/>
+    <sheet name="lease_rentapply_del_01" sheetId="2" r:id="rId23"/>
+    <sheet name="lease_rentapply_del_02" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="133">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -126,7 +137,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>管家-租入-租入申请-删除记录(执行删除动作)</t>
+    <t>guanjia_lease_rentapply_doAdd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/doAdd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/house</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_rentapply_house</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_rentapply_show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_rentapply_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/home/noticeDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/home/noticeList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -135,63 +186,49 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"admin_id":15658,
 "page":1,
-"page_size":5, 
-"action":"[lists],[myRent],[checkList],[xcheckList]"
+"page_size":5
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>管家-租入-租入申请-提交添加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_rentapply_doAdd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lease/rentapply/doAdd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lease/rentapply/house</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_rentapply_house</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入申请-选择房间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入申请-添加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lease/rentapply/add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lease/rentapply/show</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_rentapply_show</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入申请-查看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_rentapply_add</t>
+    <t>/lease/loose/communityList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_loose_communitylist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-分散式社区列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-首页-公告-列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-首页-公告-详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_home-noticelist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_home-noticedetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-首页-菜单权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/home/menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_home_menu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -200,16 +237,596 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
+"id":26
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/loose/index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_loose_index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限不足</t>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658111
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_loose_doadd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-新增-提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-首页(编辑)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_loose_index_edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id ":12345678
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间信息不存在</t>
+  </si>
+  <si>
+    <t>/lease/loose/submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_loose_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/checkHouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_rentapply_checkHouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/listCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/listCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_rentapply_listcount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_rentapply_listcount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-查看门店和不同状态的列表数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"action":"[lists],[myRent],[checkList],[xcheckList]"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-查看门店和不同状态的列表数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"action":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"name":"接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"name":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-分散式社区列表-精确查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-分散式社区列表-模糊查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"name":"分散式"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-首页（新增）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"data":{}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-首页（新增）
+快速发房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-新增-提交-整租</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-新增-提交-合租（要有子房间）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"data":{
+    "rent_type":1,
+    "shop_id":2,
+    "steward_id":11960,
+    "title":"21345",
+    "room_amount":1,
+    "hall_amount":1,
+    "toilet_amount":1,
+    "house_no":"13456",
+    "house_status_id":1,
+    "house_area":134.0,
+    "house_direction_id":1,
+    "house_decorate_id":1,
+    "house_product_id":1,
+    "house_rent":11.1,
+    "house_price_id":1,
+    "house_feature_id":[1],
+    "community_id":1017669,
+    "building_name":"12312",
+    "unit_name":"2313",
+    "floor_name":"fdsf",
+    "curr_floor":1,
+    "total_floor":1,
+    "house_fee_list":{}
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-编辑-提交-整租</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id ":1637119
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"data":{
+    "rent_type":1,
+    "house_id ":1637119,
+    "shop_id":2,
+    "steward_id":11960,
+    "title":"21345",
+    "room_amount":1,
+    "hall_amount":1,
+    "toilet_amount":1,
+    "house_no":"13456",
+    "house_status_id":1,
+    "house_area":134.0,
+    "house_direction_id":1,
+    "house_decorate_id":1,
+    "house_product_id":1,
+    "house_rent":11.1,
+    "house_price_id":1,
+    "house_feature_id":[1],
+    "community_id":1017669,
+    "building_name":"12312",
+    "unit_name":"2313",
+    "floor_name":"fdsf",
+    "curr_floor":1,
+    "total_floor":1,
+    "house_fee_list":{}
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"data":{
+    "rent_type":2,
+    "shop_id":2,
+    "steward_id":11960,
+    "room_amount":1,
+    "hall_amount":1,
+    "toilet_amount":1,
+    "house_no":"13456",
+    "house_area":134.0,
+    "house_decorate_id":1,
+    "community_id":1017669,
+    "building_name":"12312",
+    "unit_name":"2",
+    "floor_name":"7",
+    "curr_floor":1,
+    "total_floor":1,
+    "house_fee_list":{},
+    "house_son":[{
+    "title":"123",
+    "house_no":"13456",
+    "house_status_id":1,
+    "house_area":134.0,
+    "house_direction_id":1,
+    "house_decorate_id":1,
+    "house_product_id":1,
+    "house_rent":11.1,
+    "house_price_id":1
+     }]
+     }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合租至少需要2个子房间才能发布</t>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"data":{
+    "rent_type":2,
+    "shop_id":2,
+    "steward_id":11960,
+    "room_amount":1,
+    "hall_amount":1,
+    "toilet_amount":1,
+    "house_no":"13456",
+    "house_area":134.0,
+    "house_decorate_id":1,
+    "community_id":1017669,
+    "building_name":"12312",
+    "unit_name":"2",
+    "floor_name":"7",
+    "curr_floor":1,
+    "total_floor":1,
+    "house_fee_list":{},
+    "house_son":[{
+    "title":"123",
+    "house_no":"13456",
+    "house_status_id":1,
+    "house_area":134.0,
+    "house_direction_id":1,
+    "house_decorate_id":1,
+    "house_product_id":1,
+    "house_rent":11.1,
+    "house_price_id":1
+     },{
+    "title":"1235",
+    "house_no":"13",
+    "house_status_id":1,
+    "house_area":134.0,
+    "house_direction_id":1,
+    "house_decorate_id":1,
+    "house_product_id":1,
+    "house_rent":11.1,
+    "house_price_id":1
+     }]
+     }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-编辑-提交-合租（要有子房间）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/doUpd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-编辑-超级编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-编辑-普通编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-提交编辑-超级编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-提交编辑-普通编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
 "admin_id":15658,
 "type_id":1,
-"house_id":1636593
+"action":"upd",
+"id":698
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
 "source": 4,
-"version": "1.1.0",
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"action":"doUpd",
+"data":{
+"id":698,
+"house_id":1636593,
+"direction":1,
+"total_floor":8,
+"curr_floor":8,
+"address":"北大荒",
+"rent_amount":2000,
+"payment_type":1,
+"free_days":0,
+"contract_term":12,
+"area":110,
+"room_amount":3,
+"hall_amount":2,
+"decorate_type":1,
+"direction":1,
+"curr_floor":8,
+"total_floor":8,
+"except_earning":9000.0,
+"ready_days":1,
+"rent_type":1,
+"rent_data":{
+    "area": ["30.00", "200.00"],
+    "amount": ["600.00", "500.00"]},
+"status":1,
+"user_id":1,
+"shop_id":2,
+"remark":"1232456"
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"action":"doUpdAll",
+"data":{
+"id":698,
+"house_id":1636593,
+"direction":1,
+"total_floor":8,
+"curr_floor":8,
+"address":"北大荒",
+"rent_amount":2000,
+"payment_type":1,
+"free_days":0,
+"contract_term":12,
+"area":110,
+"room_amount":3,
+"hall_amount":2,
+"decorate_type":1,
+"direction":1,
+"curr_floor":8,
+"total_floor":8,
+"except_earning":9000.0,
+"ready_days":1,
+"rent_type":1,
+"rent_data":{
+    "area": ["30.00", "200.00"],
+    "amount": ["600.00", "500.00"]},
+"status":1,
+"user_id":1,
+"shop_id":2,
+"remark":"1232456"
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"action":"updAll",
+"id":698
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/doCheck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_rentapply_doCheck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-提交审批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-删除记录(执行删除动作)-普通删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-删除记录(执行删除动作)-超级删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-检查房间是否可用-新代
+天通苑分散式809房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-检查房间是否可用-续签
+天通苑分散式809房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-选择房间-新代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":0,
+"page":1,
+"page_size":3,
+"city_id":2,
+"county_id":249,
+"district_id":274,
+"community_name":"接口测试专用-分散式-天通苑",
+"house_no":"809"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
@@ -220,8 +837,179 @@
 "county_id":249,
 "district_id":274,
 "community_name":"接口测试专用-分散式-天通苑",
-"house_no":"212"
+"house_no":"809"
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"page":1,
+"page_size":3,
+"city_id":2,
+"county_id":249,
+"district_id":274,
+"community_name":"接口测试专用-分散式-天通苑",
+"house_no":"809"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":3,
+"page":1,
+"page_size":3,
+"city_id":2,
+"county_id":249,
+"district_id":274,
+"community_name":"接口测试专用-分散式-天通苑",
+"house_no":"809"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120,
+"from":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-添加-新代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-添加-续签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"house_id":1637120
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120,
+"data":{
+"house_id":1637120,
+"direction":1,
+"total_floor":8,
+"curr_floor":8,
+"address":"北大荒",
+"rent_amount":2000,
+"payment_type":1,
+"free_days":0,
+"contract_term":12,
+"area":110,
+"room_amount":3,
+"hall_amount":2,
+"decorate_type":1,
+"direction":1,
+"curr_floor":8,
+"total_floor":8,
+"except_earning":9000.0,
+"ready_days":1,
+"rent_type":1,
+"rent_data":{
+    "area": ["30.00", "200.00"],
+    "amount": ["600.00", "500.00"]},
+"status":1,
+"user_id":1,
+"shop_id":2,
+"remark":"1232456"
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"house_id":1637120,
+"data":{
+"house_id":1637120,
+"direction":1,
+"total_floor":8,
+"curr_floor":8,
+"address":"北大荒",
+"rent_amount":2000,
+"payment_type":1,
+"free_days":0,
+"contract_term":12,
+"area":110,
+"room_amount":3,
+"hall_amount":2,
+"decorate_type":1,
+"direction":1,
+"curr_floor":8,
+"total_floor":8,
+"except_earning":9000.0,
+"ready_days":1,
+"rent_type":1,
+"rent_data":{
+    "area": ["30.00", "200.00"],
+    "amount": ["600.00", "500.00"]},
+"status":1,
+"user_id":1,
+"shop_id":2,
+"remark":"1232456",
+"total_earning":800.0,
+"start_date":"2018-02-07"
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-提交添加-新代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-提交添加-续签</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -231,18 +1019,115 @@
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
+"page":1,
+"page_size":5, 
+"action":"[lists],[myRent],[checkList],[xcheckList]",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
 "type_id":1,
-"data":[{"house_id":1636593},
-{"direction":0},{"total_floor":0},{"curr_floor":0}]
+"action":"show",
+"id":704
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/rent/home/noticeDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/home/noticeList</t>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"action":"show",
+"id":704
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-查看-新代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-查看-续签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-审批-驳回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_rentapply_show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"action":"check",
+"id":698
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"data":{
+"id":698,
+"status":2,
+"apply_remark":"123",
+"remark":"123"
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"data":{
+"id":698,
+"status":1,
+"apply_remark":"123",
+"remark":"123"
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"house_id":1637120,
+"from":1
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -251,187 +1136,9 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"page":1,
-"page_size":5
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lease/loose/communityList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_loose_communitylist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-房源录入-分散式社区列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-首页-公告-列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-首页-公告-详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_home-noticelist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_home-noticedetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-首页-菜单权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/home/menu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_home_menu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"id":26
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
 "admin_id":15658,
-"type_id":1,
-"action":"show",
-"id":
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lease/loose/index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_loose_index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-房源录入-首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限不足</t>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658111
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lease/loose/doAdd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_loose_doadd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-房源录入-新增-提交</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"data":[]
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"data":[{
-    "rent_type":1,
-    "shop_id":1111,
-    "steward_id":11111,
-    "title":"21345",
-    "room_amount":1,
-    "hall_amount":1,
-    "toilet_amount":1,
-    "house_no":"13456",
-    "house_status_id":1,
-    "house_area":134.0,
-    "house_direction_id":"1",
-    "house_decorate_id":"1",
-    "house_product_id":1,
-    "house_rent":11.1,
-    "house_price_id":1,
-    "house_feature_id":[],
-    "community_id":1017669,
-    "building_name":"12312",
-    "unit_name":"2313",
-    "floor_name":"fdsf",
-    "curr_floor":1,
-    "total_floor":1
-}]
+"id":713,
+"action":"delAll"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -440,7 +1147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +1186,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -528,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -556,6 +1270,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,6 +1581,1561 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="279.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="32.25" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -907,10 +3179,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -919,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -940,12 +3212,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -988,10 +3260,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -1000,91 +3272,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="32.25" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="304.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1103,12 +3294,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1151,10 +3342,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -1163,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1178,330 +3369,61 @@
         <v>10</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1560,10 +3482,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -1572,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1589,10 +3511,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -1601,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -1613,7 +3535,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1625,10 +3547,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1671,22 +3593,22 @@
     </row>
     <row r="2" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1698,47 +3620,106 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
       </c>
       <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
         <v>1001</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1779,12 +3760,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -1793,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1806,6 +3787,35 @@
       </c>
       <c r="I2" s="9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2001</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +3826,150 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1860,7 +4010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="256.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1877,7 +4027,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1923,85 +4073,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="279.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="25" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -31,13 +31,18 @@
     <sheet name="lease_rentapply_docheck_pass" sheetId="26" r:id="rId22"/>
     <sheet name="lease_rentapply_del_01" sheetId="2" r:id="rId23"/>
     <sheet name="lease_rentapply_del_02" sheetId="24" r:id="rId24"/>
+    <sheet name="cw_orders_lists" sheetId="27" r:id="rId25"/>
+    <sheet name="cw_orders_detail" sheetId="28" r:id="rId26"/>
+    <sheet name="cw_orders_rollback" sheetId="29" r:id="rId27"/>
+    <sheet name="cw_orders_handle" sheetId="30" r:id="rId28"/>
+    <sheet name="cw_orders_submit" sheetId="31" r:id="rId29"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="153">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1139,6 +1144,122 @@
 "admin_id":15658,
 "id":713,
 "action":"delAll"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cw/orders/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_cw_orders_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-财务-订单管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":5,
+"where":{"community_name":"集中式-新-接口测试","house_no":"1001"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cw/orders/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_cw_orders_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-财务-订单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cw/orders/rollback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-财务-提交打回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_cw_orders_rollback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cw/orders/handle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_cw_orders_handle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-财务-确认入账页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-财务-提交入账页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_cw_orders_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cw/orders/submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":10980
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":10980
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":10980
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":10980,
+"admin_id":15658,
+"receipt_time":"2018-02-12",
+"record_time":"2018-02-12"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2271,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3136,7 +3257,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3195,6 +3316,413 @@
       </c>
       <c r="F2" s="6" t="s">
         <v>132</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="25" activeTab="28"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -3012,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3663,7 +3663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -34,15 +34,16 @@
     <sheet name="cw_orders_lists" sheetId="27" r:id="rId25"/>
     <sheet name="cw_orders_detail" sheetId="28" r:id="rId26"/>
     <sheet name="cw_orders_rollback" sheetId="29" r:id="rId27"/>
-    <sheet name="cw_orders_handle" sheetId="30" r:id="rId28"/>
-    <sheet name="cw_orders_submit" sheetId="31" r:id="rId29"/>
+    <sheet name="rent_user_create" sheetId="32" r:id="rId28"/>
+    <sheet name="cw_orders_handle" sheetId="30" r:id="rId29"/>
+    <sheet name="cw_orders_submit" sheetId="31" r:id="rId30"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="159">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -883,19 +884,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":1,
-"house_id":1637120,
-"from":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>管家-租入-租入申请-添加-新代</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1236,7 +1224,10 @@
 "version": "2.0",
 "site_id": 1,
 "timestamp":"",
-"orders_id":10980
+"orders_id":10980,
+"admin_id":15658,
+"receipt_time":"2018-02-12",
+"record_time":"2018-02-12"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1246,8 +1237,26 @@
 "version": "2.0",
 "site_id": 1,
 "timestamp":"",
-"orders_id":10980
+"orders_id":109810,
+"admin_id":15658,
+"receipt_time":"2018-02-12",
+"record_time":"2018-02-12"
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单信息不存在</t>
+  </si>
+  <si>
+    <t>/rent/bill/create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent_bill_create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单收款-租客-提交账单收款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1256,10 +1265,46 @@
 "version": "2.0",
 "site_id": 1,
 "timestamp":"",
-"orders_id":10980,
 "admin_id":15658,
-"receipt_time":"2018-02-12",
-"record_time":"2018-02-12"
+"type_id":1,
+"house_id":1637120,
+"from":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":12052
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":12052
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"bill_id":14706,
+"account_list":[{
+"id":4,
+"amount":4944
+}],
+"remark":"123"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1784,7 +1829,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1842,7 +1887,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1871,7 +1916,7 @@
         <v>57</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2218,7 +2263,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2230,7 +2275,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2247,7 +2292,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2259,7 +2304,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2281,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2328,7 +2373,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>22</v>
@@ -2340,7 +2385,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2357,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>22</v>
@@ -2369,7 +2414,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2439,7 +2484,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2451,7 +2496,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2468,7 +2513,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2480,16 +2525,16 @@
         <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2546,10 +2591,10 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2561,7 +2606,7 @@
         <v>97</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2643,7 +2688,7 @@
         <v>98</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3012,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3152,7 +3197,7 @@
         <v>98</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3257,7 +3302,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3315,7 +3360,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3338,7 +3383,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3381,10 +3426,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3393,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3420,7 +3465,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3463,10 +3508,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3475,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3502,7 +3547,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3545,10 +3590,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>22</v>
@@ -3557,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3582,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3626,10 +3671,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3638,10 +3683,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3656,6 +3701,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3664,7 +3710,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3707,22 +3753,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3819,6 +3865,116 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4496,7 +4652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -4555,7 +4711,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="27"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="26" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="160">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1193,10 +1193,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>管家-财务-确认入账页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>管家-财务-提交入账页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1209,42 +1205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"orders_id":10980
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"orders_id":10980,
-"admin_id":15658,
-"receipt_time":"2018-02-12",
-"record_time":"2018-02-12"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"orders_id":109810,
-"admin_id":15658,
-"receipt_time":"2018-02-12",
-"record_time":"2018-02-12"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>订单信息不存在</t>
   </si>
   <si>
@@ -1253,10 +1213,6 @@
   </si>
   <si>
     <t>guanjia_rent_bill_create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-账单收款-租客-提交账单收款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1291,6 +1247,17 @@
 "orders_id":12052
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单收款-租客-提交账单收款（目前没接口）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-财务-确认入账页（目前没接口）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单下已存在订单</t>
   </si>
   <si>
     <t>{
@@ -1305,6 +1272,36 @@
 "amount":4944
 }],
 "remark":"123"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单信息不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":12052,
+"admin_id":15658,
+"receipt_time":"2018-02-12",
+"record_time":"2018-02-12"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":109810,
+"admin_id":15658,
+"receipt_time":"2018-02-12",
+"record_time":"2018-02-12"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1887,7 +1884,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3383,7 +3380,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3465,7 +3462,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3523,7 +3520,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3605,7 +3602,7 @@
         <v>139</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3627,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3671,10 +3668,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3683,19 +3680,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
       <c r="H2" s="8">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3710,7 +3707,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3756,7 +3753,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3768,16 +3765,16 @@
         <v>142</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
       <c r="H2" s="8">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +3869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3916,10 +3913,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>22</v>
@@ -3928,27 +3925,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>22</v>
@@ -3957,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3969,7 +3966,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="26" activeTab="29"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="26" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="161">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1302,6 +1302,17 @@
 "admin_id":15658,
 "receipt_time":"2018-02-12",
 "record_time":"2018-02-12"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":12052,
+"admin_id":15658
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3706,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3765,7 +3776,7 @@
         <v>142</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3869,7 +3880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="26" activeTab="28"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="162">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1313,6 +1313,57 @@
 "timestamp":"",
 "orders_id":12052,
 "admin_id":15658
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"data":{
+    "rent_type":2,
+    "shop_id":2,
+    "steward_id":11960,
+    "room_amount":1,
+    "hall_amount":1,
+    "toilet_amount":1,
+    "kitchen_amount":1,
+    "balcony_amount":1,
+    "house_no":"13456",
+    "house_area":134.0,
+    "house_decorate_id":1,
+    "community_id":1017669,
+    "building_name":"12312",
+    "unit_name":"2",
+    "floor_name":"7",
+    "curr_floor":1,
+    "total_floor":1,
+    "house_fee_list":{},
+    "house_son":[{
+    "title":"123",
+    "house_no":"13456",
+    "house_status_id":1,
+    "house_area":134.0,
+    "house_direction_id":1,
+    "house_decorate_id":1,
+    "house_product_id":1,
+    "house_rent":11.1,
+    "house_price_id":1
+     },{
+    "title":"1235",
+    "house_no":"13",
+    "house_status_id":1,
+    "house_area":134.0,
+    "house_direction_id":1,
+    "house_decorate_id":1,
+    "house_product_id":1,
+    "house_rent":11.1,
+    "house_price_id":1
+     }]
+     }
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3717,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4241,8 +4292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4329,7 +4380,7 @@
         <v>55</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -15,35 +15,47 @@
     <sheet name="lease_loose_submit" sheetId="12" r:id="rId6"/>
     <sheet name="lease_loose_index_edit" sheetId="13" r:id="rId7"/>
     <sheet name="lease_loose_submit_edit" sheetId="17" r:id="rId8"/>
-    <sheet name="lease_rentapply_lists" sheetId="1" r:id="rId9"/>
-    <sheet name="lease_rentapply_checkhouse" sheetId="15" r:id="rId10"/>
-    <sheet name="lease_rentapply_listcount" sheetId="16" r:id="rId11"/>
-    <sheet name="lease_rentapply_house" sheetId="5" r:id="rId12"/>
-    <sheet name="lease_rentapply_add" sheetId="4" r:id="rId13"/>
-    <sheet name="lease_rentapply_doadd" sheetId="3" r:id="rId14"/>
-    <sheet name="lease_rentapply_show" sheetId="6" r:id="rId15"/>
-    <sheet name="lease_rentapply_check" sheetId="25" r:id="rId16"/>
-    <sheet name="lease_rentapply_docheck_back" sheetId="23" r:id="rId17"/>
-    <sheet name="lease_rentapply_edit_01" sheetId="18" r:id="rId18"/>
-    <sheet name="lease_rentapply_doedit_01" sheetId="19" r:id="rId19"/>
-    <sheet name="lease_rentapply_edit_02" sheetId="20" r:id="rId20"/>
-    <sheet name="lease_rentapply_doedit_02" sheetId="21" r:id="rId21"/>
-    <sheet name="lease_rentapply_docheck_pass" sheetId="26" r:id="rId22"/>
-    <sheet name="lease_rentapply_del_01" sheetId="2" r:id="rId23"/>
-    <sheet name="lease_rentapply_del_02" sheetId="24" r:id="rId24"/>
-    <sheet name="cw_orders_lists" sheetId="27" r:id="rId25"/>
-    <sheet name="cw_orders_detail" sheetId="28" r:id="rId26"/>
-    <sheet name="cw_orders_rollback" sheetId="29" r:id="rId27"/>
-    <sheet name="rent_user_create" sheetId="32" r:id="rId28"/>
-    <sheet name="cw_orders_handle" sheetId="30" r:id="rId29"/>
-    <sheet name="cw_orders_submit" sheetId="31" r:id="rId30"/>
+    <sheet name="lease_signing_lists" sheetId="33" r:id="rId9"/>
+    <sheet name="lease_signing_addlease" sheetId="34" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="35" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="36" r:id="rId12"/>
+    <sheet name="Sheet5" sheetId="37" r:id="rId13"/>
+    <sheet name="Sheet6" sheetId="38" r:id="rId14"/>
+    <sheet name="Sheet7" sheetId="39" r:id="rId15"/>
+    <sheet name="Sheet8" sheetId="40" r:id="rId16"/>
+    <sheet name="Sheet9" sheetId="41" r:id="rId17"/>
+    <sheet name="Sheet10" sheetId="42" r:id="rId18"/>
+    <sheet name="lease_rentapply_lists" sheetId="1" r:id="rId19"/>
+    <sheet name="lease_rentapply_checkhouse" sheetId="15" r:id="rId20"/>
+    <sheet name="Sheet11" sheetId="43" r:id="rId21"/>
+    <sheet name="lease_rentapply_listcount" sheetId="16" r:id="rId22"/>
+    <sheet name="lease_rentapply_house" sheetId="5" r:id="rId23"/>
+    <sheet name="lease_rentapply_add" sheetId="4" r:id="rId24"/>
+    <sheet name="lease_rentapply_doadd" sheetId="3" r:id="rId25"/>
+    <sheet name="lease_rentapply_show" sheetId="6" r:id="rId26"/>
+    <sheet name="lease_rentapply_check" sheetId="25" r:id="rId27"/>
+    <sheet name="lease_rentapply_docheck_back" sheetId="23" r:id="rId28"/>
+    <sheet name="lease_rentapply_edit_01" sheetId="18" r:id="rId29"/>
+    <sheet name="lease_rentapply_doedit_01" sheetId="19" r:id="rId30"/>
+    <sheet name="lease_rentapply_edit_02" sheetId="20" r:id="rId31"/>
+    <sheet name="lease_rentapply_doedit_02" sheetId="21" r:id="rId32"/>
+    <sheet name="lease_rentapply_docheck_pass" sheetId="26" r:id="rId33"/>
+    <sheet name="lease_rentapply_del_01" sheetId="2" r:id="rId34"/>
+    <sheet name="lease_rentapply_del_02" sheetId="24" r:id="rId35"/>
+    <sheet name="cw_orders_lists" sheetId="27" r:id="rId36"/>
+    <sheet name="cw_orders_detail" sheetId="28" r:id="rId37"/>
+    <sheet name="cw_orders_rollback" sheetId="29" r:id="rId38"/>
+    <sheet name="rent_user_create" sheetId="32" r:id="rId39"/>
+    <sheet name="cw_orders_handle" sheetId="30" r:id="rId40"/>
+    <sheet name="cw_orders_submit" sheetId="31" r:id="rId41"/>
+    <sheet name="1" sheetId="44" r:id="rId42"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="169">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -798,16 +810,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>管家-租入-租入申请-检查房间是否可用-新代
-天通苑分散式809房间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入申请-检查房间是否可用-续签
-天通苑分散式809房间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>管家-租入-租入申请-选择房间-新代</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -889,30 +891,6 @@
   </si>
   <si>
     <t>管家-租入-租入申请-添加-续签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":1,
-"house_id":1637120
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":2,
-"house_id":1637120
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1113,19 +1091,6 @@
   <si>
     <t>{
 "source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":2,
-"house_id":1637120,
-"from":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
@@ -1213,19 +1178,6 @@
   </si>
   <si>
     <t>guanjia_rent_bill_create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":1,
-"house_id":1637120,
-"from":1
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1364,6 +1316,102 @@
     "house_price_id":1
      }]
      }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_signing_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-租约列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page ":1,
+"page_size":5
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/addLease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_signing_addlease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-待添加租约列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-检查房间是否可用-新代
+天通苑分散式809房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120,
+"from":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"house_id":1637120
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-检查房间是否可用-续签
+天通苑分散式809房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"house_id":1637120,
+"from":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1885,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1929,12 +1977,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -1943,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1955,35 +2003,6 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1995,10 +2014,114 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2039,12 +2162,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="256.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2053,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2068,12 +2191,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2082,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2095,858 +2218,12 @@
       </c>
       <c r="I3" s="9" t="s">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="279.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="32.25" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3033,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3077,12 +2354,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3091,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3103,6 +2380,35 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3114,10 +2420,23 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3158,24 +2477,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3185,6 +2504,35 @@
       </c>
       <c r="I2" s="9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3193,12 +2541,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3239,24 +2587,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="279.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3265,6 +2613,93 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3274,12 +2709,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3322,10 +2757,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3334,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3346,6 +2781,145 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="32.25" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3356,12 +2930,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3404,10 +2978,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3416,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3428,7 +3002,36 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3437,12 +3040,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3483,12 +3086,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3497,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3519,12 +3122,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3565,24 +3168,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3597,16 +3200,15 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3649,22 +3251,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3676,172 +3278,21 @@
         <v>10</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1001</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>155</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1001</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3932,6 +3383,179 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3973,67 +3597,609 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>89</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
       <c r="H2" s="8">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1001</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4177,6 +4343,307 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
@@ -4292,8 +4759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4380,7 +4847,7 @@
         <v>55</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4462,7 +4929,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4709,10 +5176,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4753,12 +5220,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="256.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4767,10 +5234,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4780,40 +5247,11 @@
       </c>
       <c r="I2" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1001</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="19" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -2313,7 +2313,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="30" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="170">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1413,6 +1413,10 @@
 "house_id":1637120,
 "from":1
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/doUpd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2312,7 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3555,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3611,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>95</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="30" activeTab="31"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="171">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1417,6 +1417,19 @@
   </si>
   <si>
     <t>/lease/rentapply/doUpd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page ":1,
+"page_size":5,
+"action":"myLists"
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3559,7 +3572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -5182,8 +5195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5241,7 +5254,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -3980,7 +3980,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4776,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5195,7 +5195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -4776,7 +4776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5195,8 +5195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="198">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,19 +103,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/lease/rentapply/lists</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -129,10 +116,6 @@
   </si>
   <si>
     <t>参数格式错误</t>
-  </si>
-  <si>
-    <t>管家-租入-租入申请-列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/lease/rentapply/del</t>
@@ -271,16 +254,6 @@
     <t>权限不足</t>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658111
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>guanjia_lease_loose_doadd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -345,30 +318,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/lease/rentapply/listCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>guanjia_lease_rentapply_listcount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_rentapply_listcount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入申请-查看门店和不同状态的列表数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"action":"[lists],[myRent],[checkList],[xcheckList]"
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -398,17 +348,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"name":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>管家-租入-房源录入-分散式社区列表-精确查找</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -417,28 +356,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"name":"分散式"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>管家-租入-房源录入-首页（新增）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -502,17 +420,6 @@
   </si>
   <si>
     <t>管家-租入-房源录入-编辑-提交-整租</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id ":1637119
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -986,20 +893,6 @@
   <si>
     <t>{
 "source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":5, 
-"action":"[lists],[myRent],[checkList],[xcheckList]",
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
 "version": "2.0",
 "site_id": 1,
 "timestamp":"",
@@ -1265,6 +1158,194 @@
 "timestamp":"",
 "orders_id":12052,
 "admin_id":15658
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_signing_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-租约列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page ":1,
+"page_size":5
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/addLease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_signing_addlease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-待添加租约列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-检查房间是否可用-新代
+天通苑分散式809房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"house_id":1637120
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-检查房间是否可用-续签
+天通苑分散式809房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"house_id":1637120,
+"from":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/doUpd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page ":1,
+"page_size":5,
+"action":"myLists"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658111
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id ":1637119
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1637119
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"name":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"name":"分散式"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"name":"分散式",
+"page":1,
+"page_size":2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1320,15 +1401,434 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/lease/signing/lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_signing_lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入租约-租约列表</t>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":5, 
+"action":"[lists],[myRent],[checkList],[xcheckList]",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":5, 
+"action":"[lists]",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"myRent",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"checkList",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"xcheckList",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"city_id":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"county_id":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"district_id":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"shop_id":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":2,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":3,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":4,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":6,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":12,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"type_id":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"type_id":2,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":0,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":2,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":3,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":4,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":5,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"radmin_name":"刘大大",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"admin_name":"刘大大",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"user_mobile":"刘大大",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"contact_name":"刘大大",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1338,26 +1838,8 @@
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"page ":1,
-"page_size":5
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lease/signing/addLease</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_signing_addlease</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入租约-待添加租约列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入申请-检查房间是否可用-新代
-天通苑分散式809房间</t>
+"action":"[lists],[myRent],[checkList],[xcheckList]"
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1370,65 +1852,6 @@
 "type_id":1,
 "house_id":1637120,
 "from":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":1,
-"house_id":1637120
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":2,
-"house_id":1637120
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入申请-检查房间是否可用-续签
-天通苑分散式809房间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":2,
-"house_id":1637120,
-"from":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lease/rentapply/doUpd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page ":1,
-"page_size":5,
-"action":"myLists"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1914,10 +2337,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -1926,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1996,10 +2419,10 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2008,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2135,10 +2558,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2179,62 +2602,845 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="256.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="219" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="201.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1001</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>15</v>
+      <c r="F10" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2292,10 +3498,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2304,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2329,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2373,10 +3579,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2385,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2402,10 +3608,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2414,10 +3620,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2450,10 +3656,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2496,10 +3702,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2508,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2525,10 +3731,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2537,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2549,7 +3755,848 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2606,10 +4653,10 @@
     </row>
     <row r="2" spans="1:9" ht="279.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2618,10 +4665,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2635,10 +4682,10 @@
     </row>
     <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2647,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2664,10 +4711,10 @@
     </row>
     <row r="4" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -2676,10 +4723,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2693,10 +4740,10 @@
     </row>
     <row r="5" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -2705,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -2774,10 +4821,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2786,10 +4833,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2803,10 +4850,10 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2815,10 +4862,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2884,22 +4931,22 @@
     </row>
     <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2913,22 +4960,22 @@
     </row>
     <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2952,7 +4999,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2995,10 +5042,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3007,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3019,15 +5066,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -3036,10 +5083,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3048,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3105,10 +5152,10 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3117,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3187,22 +5234,22 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3268,10 +5315,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3280,10 +5327,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3361,10 +5408,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3373,10 +5420,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3443,22 +5490,22 @@
     </row>
     <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3535,10 +5582,10 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3547,10 +5594,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3616,22 +5663,22 @@
     </row>
     <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3697,22 +5744,22 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3735,7 +5782,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3778,10 +5825,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3790,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3860,10 +5907,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3872,10 +5919,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3941,10 +5988,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3953,10 +6000,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4023,22 +6070,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4105,22 +6152,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4186,10 +6233,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4198,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4210,7 +6257,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4222,10 +6269,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4268,10 +6315,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4280,28 +6327,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4309,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4324,12 +6371,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -4338,10 +6385,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4350,6 +6397,64 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4408,10 +6513,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4420,10 +6525,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4432,7 +6537,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4489,22 +6594,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4513,27 +6618,27 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4542,7 +6647,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4599,22 +6704,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4623,27 +6728,27 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4652,7 +6757,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4663,10 +6768,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4709,10 +6814,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4721,10 +6826,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4738,10 +6843,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -4750,10 +6855,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4762,7 +6867,65 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2001</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4776,8 +6939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4820,22 +6983,22 @@
     </row>
     <row r="2" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4849,22 +7012,22 @@
     </row>
     <row r="3" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4878,22 +7041,22 @@
     </row>
     <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4902,27 +7065,27 @@
         <v>1000</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4931,7 +7094,7 @@
         <v>1001</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4946,7 +7109,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:XFD1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4989,10 +7152,10 @@
     </row>
     <row r="2" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5001,10 +7164,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5018,10 +7181,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -5030,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -5042,7 +7205,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5099,22 +7262,22 @@
     </row>
     <row r="2" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5128,22 +7291,22 @@
     </row>
     <row r="3" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -5157,22 +7320,22 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -5181,7 +7344,7 @@
         <v>1001</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5195,7 +7358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5239,10 +7402,10 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5251,10 +7414,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="23" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -897,19 +897,6 @@
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"type_id":1,
-"action":"show",
-"id":704
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
 "type_id":2,
 "action":"show",
 "id":704
@@ -1852,6 +1839,19 @@
 "type_id":1,
 "house_id":1637120,
 "from":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"action":"show",
+"id":704
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2419,11 +2419,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2619,7 +2619,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -3535,7 +3535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -3582,7 +3582,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3594,7 +3594,7 @@
         <v>54</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -3623,7 +3623,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>56</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>56</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>56</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -3862,7 +3862,7 @@
         <v>56</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>56</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>56</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -4007,7 +4007,7 @@
         <v>56</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>56</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>56</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>56</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>56</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>56</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>56</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -4297,7 +4297,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>56</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -4355,7 +4355,7 @@
         <v>56</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>56</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>56</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -4442,7 +4442,7 @@
         <v>56</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>56</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>56</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>56</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -4558,7 +4558,7 @@
         <v>56</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>56</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -4836,7 +4836,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4998,8 +4998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5040,12 +5040,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5057,7 +5057,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5074,7 +5074,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -5086,16 +5086,16 @@
         <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5152,10 +5152,10 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5167,7 +5167,7 @@
         <v>86</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>87</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>84</v>
@@ -5759,7 +5759,7 @@
         <v>87</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5922,7 +5922,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5988,22 +5988,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6070,11 +6070,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6152,10 +6152,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>20</v>
@@ -6164,10 +6164,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6233,10 +6233,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6245,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6257,7 +6257,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6330,7 +6330,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6417,7 +6417,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -6513,10 +6513,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6525,10 +6525,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6594,10 +6594,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>20</v>
@@ -6606,10 +6606,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6618,15 +6618,15 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>20</v>
@@ -6635,10 +6635,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6647,7 +6647,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6704,10 +6704,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>20</v>
@@ -6716,10 +6716,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6728,15 +6728,15 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>20</v>
@@ -6745,10 +6745,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6829,7 +6829,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -6916,7 +6916,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7027,7 +7027,7 @@
         <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7167,7 +7167,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7402,11 +7402,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -7414,10 +7414,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="23" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Sheet10" sheetId="42" r:id="rId18"/>
     <sheet name="lease_rentapply_lists" sheetId="1" r:id="rId19"/>
     <sheet name="lease_rentapply_checkhouse" sheetId="15" r:id="rId20"/>
-    <sheet name="Sheet11" sheetId="43" r:id="rId21"/>
+    <sheet name="lease_rentapply_lastshow" sheetId="43" r:id="rId21"/>
     <sheet name="lease_rentapply_listcount" sheetId="16" r:id="rId22"/>
     <sheet name="lease_rentapply_house" sheetId="5" r:id="rId23"/>
     <sheet name="lease_rentapply_add" sheetId="4" r:id="rId24"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="206">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,18 +123,6 @@
   </si>
   <si>
     <t>guanjia_lease_rentapply_del</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"id":564,
-"action":"del"
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1216,19 +1204,6 @@
   <si>
     <t>管家-租入-租入申请-检查房间是否可用-续签
 天通苑分散式809房间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":2,
-"house_id":1637120,
-"from":1
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1837,8 +1812,8 @@
 "timestamp":"",
 "admin_id":15658,
 "type_id":1,
-"house_id":1637120,
-"from":1
+"action":"show",
+"id":704
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1850,8 +1825,105 @@
 "timestamp":"",
 "admin_id":15658,
 "type_id":1,
-"action":"show",
-"id":704
+"house_id":1637120,
+"from":1,
+"shop_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"house_id":1637120,
+"from":1,
+"shop_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"from":1,
+"shop_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1637120,
+"from":1,
+"shop_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/lastShow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_rentapply_lastshow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-获取上次合作情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1637120
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1637120
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"id":564,
+"action":"del"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"id":564
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2337,22 +2409,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2419,11 +2491,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -2431,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2560,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2607,7 +2679,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2619,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2648,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2677,7 +2749,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2706,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -2735,7 +2807,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -2764,7 +2836,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -2793,7 +2865,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -2822,7 +2894,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -2851,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -2880,7 +2952,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -2909,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -2938,7 +3010,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -2967,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -2996,7 +3068,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -3025,7 +3097,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -3054,7 +3126,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3083,7 +3155,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -3112,7 +3184,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -3141,7 +3213,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -3170,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -3199,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -3228,7 +3300,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -3257,7 +3329,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -3286,7 +3358,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -3315,7 +3387,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -3344,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -3373,7 +3445,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -3402,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -3431,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -3498,10 +3570,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3510,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3533,10 +3605,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3579,10 +3651,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3591,48 +3663,106 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
+      <c r="B4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3643,12 +3773,138 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3702,11 +3958,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -3714,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3731,22 +3987,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3760,11 +4016,11 @@
     </row>
     <row r="4" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -3772,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3789,11 +4045,11 @@
     </row>
     <row r="5" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3801,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -3818,11 +4074,11 @@
     </row>
     <row r="6" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -3830,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -3847,11 +4103,11 @@
     </row>
     <row r="7" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
@@ -3859,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -3876,11 +4132,11 @@
     </row>
     <row r="8" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
@@ -3888,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -3905,11 +4161,11 @@
     </row>
     <row r="9" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -3917,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -3934,11 +4190,11 @@
     </row>
     <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
@@ -3946,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -3963,11 +4219,11 @@
     </row>
     <row r="11" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
@@ -3975,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -3992,11 +4248,11 @@
     </row>
     <row r="12" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
@@ -4004,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -4021,11 +4277,11 @@
     </row>
     <row r="13" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
@@ -4033,10 +4289,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -4050,11 +4306,11 @@
     </row>
     <row r="14" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
@@ -4062,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -4079,11 +4335,11 @@
     </row>
     <row r="15" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
@@ -4091,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -4108,11 +4364,11 @@
     </row>
     <row r="16" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
@@ -4120,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -4137,11 +4393,11 @@
     </row>
     <row r="17" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
@@ -4149,10 +4405,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -4166,11 +4422,11 @@
     </row>
     <row r="18" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
@@ -4178,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -4195,11 +4451,11 @@
     </row>
     <row r="19" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
@@ -4207,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -4224,11 +4480,11 @@
     </row>
     <row r="20" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
@@ -4236,10 +4492,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -4253,11 +4509,11 @@
     </row>
     <row r="21" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
@@ -4265,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -4282,11 +4538,11 @@
     </row>
     <row r="22" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
@@ -4294,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -4311,11 +4567,11 @@
     </row>
     <row r="23" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
@@ -4323,10 +4579,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -4340,11 +4596,11 @@
     </row>
     <row r="24" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
@@ -4352,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -4369,11 +4625,11 @@
     </row>
     <row r="25" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
@@ -4381,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -4398,11 +4654,11 @@
     </row>
     <row r="26" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
@@ -4410,10 +4666,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -4427,11 +4683,11 @@
     </row>
     <row r="27" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
@@ -4439,10 +4695,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -4456,11 +4712,11 @@
     </row>
     <row r="28" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
@@ -4468,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -4485,11 +4741,11 @@
     </row>
     <row r="29" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
@@ -4497,10 +4753,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -4514,11 +4770,11 @@
     </row>
     <row r="30" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
@@ -4526,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -4543,11 +4799,11 @@
     </row>
     <row r="31" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
@@ -4555,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -4572,11 +4828,11 @@
     </row>
     <row r="32" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
@@ -4584,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -4609,8 +4865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4653,22 +4909,22 @@
     </row>
     <row r="2" spans="1:9" ht="279.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4682,10 +4938,10 @@
     </row>
     <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -4694,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4711,10 +4967,10 @@
     </row>
     <row r="4" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -4723,10 +4979,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4740,10 +4996,10 @@
     </row>
     <row r="5" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -4752,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4777,8 +5033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4821,10 +5077,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4833,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4850,10 +5106,10 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -4862,10 +5118,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4888,7 +5144,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4931,22 +5187,22 @@
     </row>
     <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4960,22 +5216,22 @@
     </row>
     <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4998,8 +5254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5042,10 +5298,10 @@
     </row>
     <row r="2" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5054,10 +5310,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5066,15 +5322,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -5083,19 +5339,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5109,7 +5365,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5152,22 +5408,22 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5191,7 +5447,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5234,22 +5490,22 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5272,7 +5528,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5315,10 +5571,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5327,10 +5583,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5408,10 +5664,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5420,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5444,263 +5700,9 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -5742,24 +5744,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5777,7 +5779,169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5823,24 +5987,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5855,16 +6019,15 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5910,7 +6073,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5922,7 +6085,118 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>113</v>
+        <v>204</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5988,22 +6262,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6070,11 +6344,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -6082,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6152,22 +6426,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6233,10 +6507,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6245,10 +6519,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6257,7 +6531,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -6315,11 +6589,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -6327,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6344,11 +6618,11 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -6356,10 +6630,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6373,10 +6647,10 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -6385,10 +6659,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -6402,10 +6676,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -6414,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6431,10 +6705,10 @@
     </row>
     <row r="6" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -6443,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -6513,10 +6787,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6525,10 +6799,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6537,7 +6811,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -6594,22 +6868,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6618,27 +6892,27 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6647,7 +6921,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -6704,22 +6978,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6728,27 +7002,27 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6757,7 +7031,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -6814,10 +7088,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6826,10 +7100,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6843,10 +7117,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -6855,10 +7129,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6867,15 +7141,15 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -6884,10 +7158,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -6896,15 +7170,15 @@
         <v>2001</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -6913,10 +7187,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6983,22 +7257,22 @@
     </row>
     <row r="2" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7012,22 +7286,22 @@
     </row>
     <row r="3" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7041,22 +7315,22 @@
     </row>
     <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7065,27 +7339,27 @@
         <v>1000</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7152,10 +7426,10 @@
     </row>
     <row r="2" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7164,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7181,22 +7455,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7205,7 +7479,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7262,22 +7536,22 @@
     </row>
     <row r="2" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7291,22 +7565,22 @@
     </row>
     <row r="3" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7320,22 +7594,22 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7402,11 +7676,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -7414,10 +7688,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -1236,16 +1236,6 @@
   <si>
     <t>{
 "source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658111
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
 "version": "2.0",
 "site_id": 1,
 "timestamp":"",
@@ -1924,6 +1914,16 @@
 "timestamp":"",
 "admin_id":15658,
 "id":564
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":1565811121
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2679,7 +2679,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2691,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -3300,7 +3300,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -3819,22 +3819,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3848,11 +3848,11 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>46</v>
@@ -3877,11 +3877,11 @@
     </row>
     <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -3889,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>55</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>55</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>55</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>55</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -4466,7 +4466,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>55</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>55</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>55</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>55</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -4814,7 +4814,7 @@
         <v>55</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>55</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -5033,7 +5033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -5313,7 +5313,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7044,8 +7044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7132,7 +7132,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7161,7 +7161,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7190,7 +7190,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7301,7 +7301,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7441,7 +7441,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -1251,28 +1251,6 @@
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"house_id ":1637119
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1637119
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
 "name":""
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1298,6 +1276,581 @@
 "name":"分散式",
 "page":1,
 "page_size":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":5, 
+"action":"[lists],[myRent],[checkList],[xcheckList]",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":5, 
+"action":"[lists]",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"myRent",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"checkList",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"xcheckList",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"city_id":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"county_id":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"district_id":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"shop_id":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":2,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":3,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":4,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":6,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"payment_type":12,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"type_id":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"type_id":2,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":0,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":1,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":2,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":3,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":4,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"status":5,
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"radmin_name":"刘大大",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"admin_name":"刘大大",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"user_mobile":"刘大大",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1, 
+"action":"lists",
+"contact_name":"刘大大",
+"community_name": "接口测试专用-分散式-天通苑"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"action":"[lists],[myRent],[checkList],[xcheckList]"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"action":"show",
+"id":704
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120,
+"from":1,
+"shop_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"house_id":1637120,
+"from":1,
+"shop_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"from":1,
+"shop_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1637120,
+"from":1,
+"shop_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/lastShow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_rentapply_lastshow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-获取上次合作情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1637120
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1637120
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"id":564,
+"action":"del"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"id":564
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":1565811121
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1355,575 +1908,22 @@
   <si>
     <t>{
 "source": 4,
-"version": "1.1.0",
+"version": "2.0",
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"page":1,
-"page_size":5, 
-"action":"[lists],[myRent],[checkList],[xcheckList]",
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入申请-列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
+"house_id":1641084
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":5, 
-"action":"[lists]",
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"myRent",
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"checkList",
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"xcheckList",
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"city_id":1,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"county_id":1,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"district_id":1,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"shop_id":1,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"payment_type":1,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"payment_type":2,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"payment_type":3,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"payment_type":4,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"payment_type":6,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"payment_type":12,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"type_id":1,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"type_id":2,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"status":0,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"status":1,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"status":2,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"status":3,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"status":4,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"status":5,
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"radmin_name":"刘大大",
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"admin_name":"刘大大",
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"user_mobile":"刘大大",
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":1, 
-"action":"lists",
-"contact_name":"刘大大",
-"community_name": "接口测试专用-分散式-天通苑"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"action":"[lists],[myRent],[checkList],[xcheckList]"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":1,
-"action":"show",
-"id":704
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":1,
-"house_id":1637120,
-"from":1,
-"shop_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":2,
-"house_id":1637120,
-"from":1,
-"shop_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":1,
-"from":1,
-"shop_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1637120,
-"from":1,
-"shop_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lease/rentapply/lastShow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_rentapply_lastshow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入申请-获取上次合作情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1637120
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1637120
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"id":564,
-"action":"del"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"id":564
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":1565811121
+"house_id ":1641084
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2679,7 +2679,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2691,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -3300,7 +3300,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3848,10 +3848,10 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>46</v>
@@ -3877,22 +3877,22 @@
     </row>
     <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>55</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>55</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>55</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>55</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -4466,7 +4466,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>55</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>55</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>55</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>55</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -4814,7 +4814,7 @@
         <v>55</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>55</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -5313,7 +5313,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7044,8 +7044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7132,7 +7132,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7190,7 +7190,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7213,8 +7213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7301,7 +7301,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7382,8 +7382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7441,7 +7441,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7493,7 +7493,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="39" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -17,45 +17,46 @@
     <sheet name="lease_loose_submit_edit" sheetId="17" r:id="rId8"/>
     <sheet name="lease_signing_lists" sheetId="33" r:id="rId9"/>
     <sheet name="lease_signing_addlease" sheetId="34" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="35" r:id="rId11"/>
-    <sheet name="Sheet4" sheetId="36" r:id="rId12"/>
-    <sheet name="Sheet5" sheetId="37" r:id="rId13"/>
-    <sheet name="Sheet6" sheetId="38" r:id="rId14"/>
-    <sheet name="Sheet7" sheetId="39" r:id="rId15"/>
-    <sheet name="Sheet8" sheetId="40" r:id="rId16"/>
-    <sheet name="Sheet9" sheetId="41" r:id="rId17"/>
-    <sheet name="Sheet10" sheetId="42" r:id="rId18"/>
-    <sheet name="lease_rentapply_lists" sheetId="1" r:id="rId19"/>
-    <sheet name="lease_rentapply_checkhouse" sheetId="15" r:id="rId20"/>
-    <sheet name="lease_rentapply_lastshow" sheetId="43" r:id="rId21"/>
-    <sheet name="lease_rentapply_listcount" sheetId="16" r:id="rId22"/>
-    <sheet name="lease_rentapply_house" sheetId="5" r:id="rId23"/>
-    <sheet name="lease_rentapply_add" sheetId="4" r:id="rId24"/>
-    <sheet name="lease_rentapply_doadd" sheetId="3" r:id="rId25"/>
-    <sheet name="lease_rentapply_show" sheetId="6" r:id="rId26"/>
-    <sheet name="lease_rentapply_check" sheetId="25" r:id="rId27"/>
-    <sheet name="lease_rentapply_docheck_back" sheetId="23" r:id="rId28"/>
-    <sheet name="lease_rentapply_edit_01" sheetId="18" r:id="rId29"/>
-    <sheet name="lease_rentapply_doedit_01" sheetId="19" r:id="rId30"/>
-    <sheet name="lease_rentapply_edit_02" sheetId="20" r:id="rId31"/>
-    <sheet name="lease_rentapply_doedit_02" sheetId="21" r:id="rId32"/>
-    <sheet name="lease_rentapply_docheck_pass" sheetId="26" r:id="rId33"/>
-    <sheet name="lease_rentapply_del_01" sheetId="2" r:id="rId34"/>
-    <sheet name="lease_rentapply_del_02" sheetId="24" r:id="rId35"/>
-    <sheet name="cw_orders_lists" sheetId="27" r:id="rId36"/>
-    <sheet name="cw_orders_detail" sheetId="28" r:id="rId37"/>
-    <sheet name="cw_orders_rollback" sheetId="29" r:id="rId38"/>
-    <sheet name="rent_user_create" sheetId="32" r:id="rId39"/>
-    <sheet name="cw_orders_handle" sheetId="30" r:id="rId40"/>
-    <sheet name="cw_orders_submit" sheetId="31" r:id="rId41"/>
-    <sheet name="1" sheetId="44" r:id="rId42"/>
+    <sheet name="Sheet4" sheetId="36" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="37" r:id="rId12"/>
+    <sheet name="Sheet6" sheetId="38" r:id="rId13"/>
+    <sheet name="Sheet7" sheetId="39" r:id="rId14"/>
+    <sheet name="Sheet8" sheetId="40" r:id="rId15"/>
+    <sheet name="Sheet9" sheetId="41" r:id="rId16"/>
+    <sheet name="Sheet10" sheetId="42" r:id="rId17"/>
+    <sheet name="lease_rentapply_lists" sheetId="1" r:id="rId18"/>
+    <sheet name="lease_rentapply_checkhouse" sheetId="15" r:id="rId19"/>
+    <sheet name="lease_rentapply_lastshow" sheetId="43" r:id="rId20"/>
+    <sheet name="lease_rentapply_listcount" sheetId="16" r:id="rId21"/>
+    <sheet name="lease_rentapply_house" sheetId="5" r:id="rId22"/>
+    <sheet name="lease_rentapply_add" sheetId="4" r:id="rId23"/>
+    <sheet name="lease_rentapply_doadd" sheetId="3" r:id="rId24"/>
+    <sheet name="lease_rentapply_show" sheetId="6" r:id="rId25"/>
+    <sheet name="lease_rentapply_check" sheetId="25" r:id="rId26"/>
+    <sheet name="lease_rentapply_docheck_back" sheetId="23" r:id="rId27"/>
+    <sheet name="lease_rentapply_edit_01" sheetId="18" r:id="rId28"/>
+    <sheet name="lease_rentapply_doedit_01" sheetId="19" r:id="rId29"/>
+    <sheet name="lease_rentapply_edit_02" sheetId="20" r:id="rId30"/>
+    <sheet name="lease_rentapply_doedit_02" sheetId="21" r:id="rId31"/>
+    <sheet name="lease_rentapply_docheck_pass" sheetId="26" r:id="rId32"/>
+    <sheet name="lease_rentapply_del_01" sheetId="2" r:id="rId33"/>
+    <sheet name="lease_rentapply_del_02" sheetId="24" r:id="rId34"/>
+    <sheet name="cw_orders_lists" sheetId="27" r:id="rId35"/>
+    <sheet name="cw_orders_detail" sheetId="28" r:id="rId36"/>
+    <sheet name="cw_orders_rollback" sheetId="29" r:id="rId37"/>
+    <sheet name="rent_user_create" sheetId="32" r:id="rId38"/>
+    <sheet name="cw_orders_handle" sheetId="30" r:id="rId39"/>
+    <sheet name="cw_orders_submit" sheetId="31" r:id="rId40"/>
+    <sheet name="1" sheetId="44" r:id="rId41"/>
+    <sheet name="lease_community_listall" sheetId="35" r:id="rId42"/>
+    <sheet name="lease_community_oftenlistall" sheetId="45" r:id="rId43"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="224">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1731,20 +1732,6 @@
 "type_id":1,
 "action":"show",
 "id":704
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":1,
-"house_id":1637120,
-"from":1,
-"shop_id":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1924,6 +1911,212 @@
 "timestamp":"",
 "admin_id":15658,
 "house_id ":1641084
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/rentapply/checkHouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120,
+"from":1,
+"shop_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120,
+"from":1,
+"shop_id":1,
+"apply_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"type_id":2,
+"action":"show",
+"id":704
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"id":704
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_community-listall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/community/communityListAll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-楼盘字典-平台小区列表(set=1 平台小区)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-楼盘字典-平台小区列表（set1=1 常用小区）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page ":1,
+"page_size":1,
+"set":1,
+"set1":0,
+"community_name":"UI分散式",
+"city_id":"",
+"county_id":"",
+"district_id":"",
+"community_name1":"",
+"city_id1":"",
+"county_id1":"",
+"district_id1":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page ":1,
+"page_size":1,
+"set":0,
+"set1":1,
+"community_name":"UI分散式",
+"city_id":"",
+"county_id":"",
+"district_id":"",
+"community_name1":"",
+"city_id1":"",
+"county_id1":"",
+"district_id1":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+Result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_community_oftenlistall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-楼盘字典-常用小区列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/community/oftenCommunityList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page ":1,
+"page_size":1,
+"community_name":"UI分散",
+"address":"",
+"city_id":"",
+"county_id":"",
+"district_id":"",
+"status":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page ":1,
+"page_size":1,
+"community_name":"UI分散",
+"address":"",
+"city_id":"",
+"county_id":"",
+"district_id":"",
+"status":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page ":1,
+"page_size":1,
+"community_name":"UI分散",
+"address":"",
+"city_id":"",
+"county_id":"",
+"district_id":"",
+"status":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page ":1,
+"page_size":1,
+"community_name":"UI分散",
+"address":"",
+"city_id":"",
+"county_id":"",
+"district_id":"",
+"status":3
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2027,7 +2220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2057,6 +2250,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2448,7 +2647,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2617,19 +2816,6 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
@@ -3519,6 +3705,204 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3605,174 +3989,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1001</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1001</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -3819,22 +4035,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3848,11 +4064,11 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3860,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>46</v>
@@ -3877,11 +4093,11 @@
     </row>
     <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -3889,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3910,7 +4126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -4861,7 +5077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -5029,7 +5245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -5139,7 +5355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -5250,12 +5466,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5354,13 +5570,71 @@
         <v>104</v>
       </c>
     </row>
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5442,7 +5716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5523,7 +5797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -5613,6 +5887,87 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5702,87 +6057,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
@@ -5860,7 +6134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5941,7 +6215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6022,7 +6296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -6085,7 +6359,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6114,7 +6388,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6133,7 +6407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6214,7 +6488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6296,7 +6570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6378,7 +6652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6459,7 +6733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6541,205 +6815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6820,7 +6896,205 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -6930,7 +7204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -7037,6 +7311,299 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7132,7 +7699,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7190,7 +7757,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7301,7 +7868,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7382,7 +7949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -7441,7 +8008,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="39" activeTab="42"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="36" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -6656,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6738,7 +6738,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7434,7 +7434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="36" activeTab="36"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="36" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -44,9 +44,9 @@
     <sheet name="cw_orders_lists" sheetId="27" r:id="rId35"/>
     <sheet name="cw_orders_detail" sheetId="28" r:id="rId36"/>
     <sheet name="cw_orders_rollback" sheetId="29" r:id="rId37"/>
-    <sheet name="rent_user_create" sheetId="32" r:id="rId38"/>
-    <sheet name="cw_orders_handle" sheetId="30" r:id="rId39"/>
-    <sheet name="cw_orders_submit" sheetId="31" r:id="rId40"/>
+    <sheet name="cw_orders_handle" sheetId="30" r:id="rId38"/>
+    <sheet name="cw_orders_submit" sheetId="31" r:id="rId39"/>
+    <sheet name="rent_user_create" sheetId="32" r:id="rId40"/>
     <sheet name="1" sheetId="44" r:id="rId41"/>
     <sheet name="lease_community_listall" sheetId="35" r:id="rId42"/>
     <sheet name="lease_community_oftenlistall" sheetId="45" r:id="rId43"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="234">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -982,19 +982,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page":1,
-"page_size":5,
-"where":{"community_name":"集中式-新-接口测试","house_no":"1001"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/cw/orders/detail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1050,31 +1037,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"orders_id":12052
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"orders_id":12052
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>管家-出租-账单收款-租客-提交账单收款（目前没接口）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-财务-确认入账页（目前没接口）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1097,10 +1060,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>订单信息不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "source": 4,
 "version": "2.0",
@@ -1123,17 +1082,6 @@
 "admin_id":15658,
 "receipt_time":"2018-02-12",
 "record_time":"2018-02-12"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"orders_id":12052,
-"admin_id":15658
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2117,6 +2065,223 @@
 "county_id":"",
 "district_id":"",
 "status":3
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cw/orders/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-财务-订单详情（UI分散社区-518栋-1-id:1641234）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1,
+"where":{
+"type_id":"",
+"status":"",
+"city_id":"",
+"community_name":"UI分散社区","house_no":"1001",
+"user_name":"",
+"admin_name":"",
+"payment_name":"",
+"community_house":""
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1,
+"where":{"community_name":"UI分散社区","house_no":"1001"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1,
+"where":{
+"type_id":1,
+"status":"",
+"city_id":"",
+"community_name":"UI分散社区","house_no":"1001",
+"user_name":"",
+"admin_name":"",
+"payment_name":"",
+"community_house":""
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1,
+"where":{
+"type_id":"",
+"status":2,
+"city_id":"",
+"community_name":"UI分散社区","house_no":"1001",
+"user_name":"",
+"admin_name":"",
+"payment_name":"",
+"community_house":""
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1,
+"where":{
+"type_id":"",
+"status":5,
+"city_id":"",
+"community_name":"UI分散社区","house_no":"1001",
+"user_name":"",
+"admin_name":"",
+"payment_name":"",
+"community_house":""
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1,
+"where":{
+"type_id":"",
+"status":"",
+"city_id":"",
+"community_name":"UI分散社区","house_no":"1001",
+"user_name":"",
+"admin_name":"",
+"payment_name":"刘",
+"community_house":""
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page":1,
+"page_size":1,
+"where":{
+"type_id":"",
+"status":"",
+"city_id":"",
+"community_name":"UI分散社区","house_no":"1001",
+"user_name":"",
+"admin_name":"",
+"payment_name":"",
+"community_house":"UI"
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":19671
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":19671,
+"rollback_remark":"备注"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":19671,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-财务-确认入账页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-财务-提交入账页（account_id退款时必传）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":19671,
+"admin_id":15658,
+"receipt_time":"2018-02-12",
+"record_time":"2018-02-12",
+"account_id":"",
+"record_remark":"备注"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2690,10 +2855,10 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2702,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2865,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2877,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2906,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2935,7 +3100,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2964,7 +3129,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -2993,7 +3158,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -3022,7 +3187,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -3051,7 +3216,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -3080,7 +3245,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -3109,7 +3274,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -3138,7 +3303,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -3167,7 +3332,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -3196,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -3225,7 +3390,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -3254,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -3283,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -3312,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3341,7 +3506,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -3370,7 +3535,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -3399,7 +3564,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -3428,7 +3593,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -3457,7 +3622,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -3486,7 +3651,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -3515,7 +3680,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -3544,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -3573,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -3602,7 +3767,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -3631,7 +3796,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -3660,7 +3825,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -3689,7 +3854,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -3759,7 +3924,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3768,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3788,7 +3953,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -3797,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3817,7 +3982,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -3829,7 +3994,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3846,7 +4011,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -3858,7 +4023,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -3875,7 +4040,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -3887,7 +4052,7 @@
         <v>53</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -4035,10 +4200,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4047,10 +4212,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4064,10 +4229,10 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -4076,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>46</v>
@@ -4093,10 +4258,10 @@
     </row>
     <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -4105,10 +4270,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4189,7 +4354,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4247,7 +4412,7 @@
         <v>55</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4276,7 +4441,7 @@
         <v>55</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4305,7 +4470,7 @@
         <v>55</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -4334,7 +4499,7 @@
         <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -4363,7 +4528,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -4392,7 +4557,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -4421,7 +4586,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -4450,7 +4615,7 @@
         <v>55</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -4479,7 +4644,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -4508,7 +4673,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -4537,7 +4702,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -4566,7 +4731,7 @@
         <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -4595,7 +4760,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -4624,7 +4789,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -4653,7 +4818,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -4682,7 +4847,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -4711,7 +4876,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -4740,7 +4905,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -4769,7 +4934,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -4798,7 +4963,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -4827,7 +4992,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -4856,7 +5021,7 @@
         <v>55</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -4885,7 +5050,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -4914,7 +5079,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -4943,7 +5108,7 @@
         <v>55</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -4972,7 +5137,7 @@
         <v>55</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -5001,7 +5166,7 @@
         <v>55</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -5030,7 +5195,7 @@
         <v>55</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -5059,7 +5224,7 @@
         <v>55</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -5308,7 +5473,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5337,7 +5502,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -5529,7 +5694,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5587,7 +5752,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -5616,7 +5781,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6194,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>83</v>
@@ -6359,7 +6524,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6388,7 +6553,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6412,7 +6577,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6490,10 +6655,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6551,7 +6716,7 @@
         <v>113</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6560,6 +6725,180 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6572,10 +6911,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6618,31 +6957,60 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6656,7 +7024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -6700,10 +7068,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -6712,10 +7080,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6781,10 +7149,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6793,25 +7161,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
       <c r="H2" s="8">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6820,7 +7187,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6861,33 +7228,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
       <c r="H2" s="8">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6959,7 +7326,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6988,7 +7355,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7046,7 +7413,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7075,7 +7442,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7096,10 +7463,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7142,22 +7509,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7166,41 +7533,13 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1001</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7252,10 +7591,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -7264,10 +7603,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7276,15 +7615,15 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -7293,10 +7632,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7305,7 +7644,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -7361,15 +7700,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7378,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7396,10 +7735,10 @@
     </row>
     <row r="3" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -7408,10 +7747,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7477,15 +7816,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7494,10 +7833,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7512,10 +7851,10 @@
     </row>
     <row r="3" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -7524,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7542,10 +7881,10 @@
     </row>
     <row r="4" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -7554,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7572,22 +7911,22 @@
     </row>
     <row r="5" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7670,7 +8009,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7699,7 +8038,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7728,7 +8067,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7757,7 +8096,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7868,7 +8207,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8008,7 +8347,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8243,10 +8582,10 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -8255,10 +8594,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="36" activeTab="39"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="48" activeTab="49"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -50,13 +50,20 @@
     <sheet name="1" sheetId="44" r:id="rId41"/>
     <sheet name="lease_community_listall" sheetId="35" r:id="rId42"/>
     <sheet name="lease_community_oftenlistall" sheetId="45" r:id="rId43"/>
+    <sheet name="lease_community_buildinglist" sheetId="46" r:id="rId44"/>
+    <sheet name="lease_community_unitlist" sheetId="47" r:id="rId45"/>
+    <sheet name="lease_community_addoftencommu" sheetId="49" r:id="rId46"/>
+    <sheet name="lease_community_addonebuilding" sheetId="48" r:id="rId47"/>
+    <sheet name="lease_community_addoneunit" sheetId="50" r:id="rId48"/>
+    <sheet name="lease_community_addonefloor" sheetId="51" r:id="rId49"/>
+    <sheet name="lease_community_addonehouse" sheetId="52" r:id="rId50"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="275">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1667,19 +1674,6 @@
 "timestamp":"",
 "admin_id":15658,
 "action":"[lists],[myRent],[checkList],[xcheckList]"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":1,
-"action":"show",
-"id":704
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2010,24 +2004,6 @@
 "city_id":"",
 "county_id":"",
 "district_id":"",
-"status":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"page ":1,
-"page_size":1,
-"community_name":"UI分散",
-"address":"",
-"city_id":"",
-"county_id":"",
-"district_id":"",
 "status":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2284,6 +2260,319 @@
 "record_remark":"备注"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/community/buildingLists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_community_buildinglists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-楼盘字典-楼栋列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"community_id":1051205
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"community_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"timestamp":"",
+"community_id":1051205
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/community/unitLists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_community_unitlists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-楼盘字典-单元/楼层/房间列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"community_id":1051205,
+"building_id":1056875
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"timestamp":"",
+"community_id":1051205,
+"building_id":1056875
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"building_id":1056875
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"community_id":1051205
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"page ":1,
+"page_size":1,
+"community_name":"UI分散",
+"address":"",
+"city_id":"",
+"county_id":"",
+"district_id":"",
+"status":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/community/addOneBuilding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_community_addonebuilding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/community/addOftenCommunity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_community_addoftencommunity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"id":"1051205",
+"type":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-楼盘字典-添加/删除常用小区(ui分散社区)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"id":"1051205",
+"type":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-楼盘字典-单个添加单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-楼盘字典-单个添加楼栋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/community/addOneUnit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_community_addoneunit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/community/addOneFloor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-楼盘字典-添加单个楼层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_community_addonefloor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-楼盘字典-添加单个房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/community/addOneHouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_community_addonehouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-检查房间是否可用-新代
+天通苑分散式809房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120,
+"from":1,
+"shop_id":1,
+"apply_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120,
+"from":2,
+"shop_id":1,
+"apply_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"action":"show",
+"id":704
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"community_id":12873,
+"building_name":"添加单个楼栋",
+"sort":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"community_id":12873,
+"building_id":"",
+"name":"添加单个单元"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"community_id":12873,
+"building_id":"",
+"unit_id":"",
+"name":"添加单个楼层"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"community_id":12873,
+"building_id":"",
+"unit_id":"",
+"floor_id":"",
+"house_no":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋名称：添加单个楼栋已存在！</t>
+  </si>
+  <si>
+    <t>单元名称：添加单个单元已存在！</t>
+  </si>
+  <si>
+    <t>楼层名称：添加单个楼层已存在！</t>
   </si>
 </sst>
 </file>
@@ -3875,10 +4164,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3933,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3962,10 +4251,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3994,7 +4283,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4006,12 +4295,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -4023,16 +4312,16 @@
         <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
       </c>
       <c r="H5" s="8">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4040,7 +4329,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -4052,15 +4341,73 @@
         <v>53</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
         <v>1001</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4200,22 +4547,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4229,11 +4576,11 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4241,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>46</v>
@@ -4258,11 +4605,11 @@
     </row>
     <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -4270,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -5635,8 +5982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5694,7 +6041,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5752,7 +6099,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -5781,7 +6128,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6524,7 +6871,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6553,7 +6900,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6716,7 +7063,7 @@
         <v>113</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6745,7 +7092,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6774,7 +7121,7 @@
         <v>113</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -6803,7 +7150,7 @@
         <v>113</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6832,7 +7179,7 @@
         <v>113</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -6861,7 +7208,7 @@
         <v>113</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -6890,7 +7237,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -6960,7 +7307,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6969,10 +7316,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7001,7 +7348,7 @@
         <v>116</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7083,7 +7430,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7152,7 +7499,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7164,7 +7511,7 @@
         <v>122</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7233,7 +7580,7 @@
         <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -7245,7 +7592,7 @@
         <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7465,7 +7812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -7657,8 +8004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7700,27 +8047,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7735,22 +8082,22 @@
     </row>
     <row r="3" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7773,8 +8120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7816,27 +8163,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7851,22 +8198,22 @@
     </row>
     <row r="3" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7881,22 +8228,22 @@
     </row>
     <row r="4" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7911,22 +8258,22 @@
     </row>
     <row r="5" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7943,6 +8290,826 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8038,7 +9205,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8096,7 +9263,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -8112,6 +9279,92 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8207,7 +9460,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8347,7 +9600,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="48" activeTab="49"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="32" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -41,29 +41,31 @@
     <sheet name="lease_rentapply_docheck_pass" sheetId="26" r:id="rId32"/>
     <sheet name="lease_rentapply_del_01" sheetId="2" r:id="rId33"/>
     <sheet name="lease_rentapply_del_02" sheetId="24" r:id="rId34"/>
-    <sheet name="cw_orders_lists" sheetId="27" r:id="rId35"/>
-    <sheet name="cw_orders_detail" sheetId="28" r:id="rId36"/>
-    <sheet name="cw_orders_rollback" sheetId="29" r:id="rId37"/>
-    <sheet name="cw_orders_handle" sheetId="30" r:id="rId38"/>
-    <sheet name="cw_orders_submit" sheetId="31" r:id="rId39"/>
-    <sheet name="rent_user_create" sheetId="32" r:id="rId40"/>
-    <sheet name="1" sheetId="44" r:id="rId41"/>
-    <sheet name="lease_community_listall" sheetId="35" r:id="rId42"/>
-    <sheet name="lease_community_oftenlistall" sheetId="45" r:id="rId43"/>
-    <sheet name="lease_community_buildinglist" sheetId="46" r:id="rId44"/>
-    <sheet name="lease_community_unitlist" sheetId="47" r:id="rId45"/>
-    <sheet name="lease_community_addoftencommu" sheetId="49" r:id="rId46"/>
-    <sheet name="lease_community_addonebuilding" sheetId="48" r:id="rId47"/>
-    <sheet name="lease_community_addoneunit" sheetId="50" r:id="rId48"/>
-    <sheet name="lease_community_addonefloor" sheetId="51" r:id="rId49"/>
-    <sheet name="lease_community_addonehouse" sheetId="52" r:id="rId50"/>
+    <sheet name="lease_rentapply_costcalculation" sheetId="53" r:id="rId35"/>
+    <sheet name="Sheet2" sheetId="54" r:id="rId36"/>
+    <sheet name="cw_orders_lists" sheetId="27" r:id="rId37"/>
+    <sheet name="cw_orders_detail" sheetId="28" r:id="rId38"/>
+    <sheet name="cw_orders_rollback" sheetId="29" r:id="rId39"/>
+    <sheet name="cw_orders_handle" sheetId="30" r:id="rId40"/>
+    <sheet name="cw_orders_submit" sheetId="31" r:id="rId41"/>
+    <sheet name="rent_user_create" sheetId="32" r:id="rId42"/>
+    <sheet name="1" sheetId="44" r:id="rId43"/>
+    <sheet name="lease_community_listall" sheetId="35" r:id="rId44"/>
+    <sheet name="lease_community_oftenlistall" sheetId="45" r:id="rId45"/>
+    <sheet name="lease_community_buildinglist" sheetId="46" r:id="rId46"/>
+    <sheet name="lease_community_unitlist" sheetId="47" r:id="rId47"/>
+    <sheet name="lease_community_addoftencommu" sheetId="49" r:id="rId48"/>
+    <sheet name="lease_community_addonebuilding" sheetId="48" r:id="rId49"/>
+    <sheet name="lease_community_addoneunit" sheetId="50" r:id="rId50"/>
+    <sheet name="lease_community_addonefloor" sheetId="51" r:id="rId51"/>
+    <sheet name="lease_community_addonehouse" sheetId="52" r:id="rId52"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="287">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2573,6 +2575,114 @@
   </si>
   <si>
     <t>楼层名称：添加单个楼层已存在！</t>
+  </si>
+  <si>
+    <t>/lease/rentapply/costCalculation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_rentapply_costcalculation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-业绩计算(decorate_type:1,豪华装修)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"area":"200",
+"decorate_type":1,
+"contract_term":"24",
+"room_amount":3,
+"rent_amount":"1000",
+"total_amount":"1500",
+"other_year_costs":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"area":"200",
+"decorate_type":2,
+"contract_term":"24",
+"room_amount":3,
+"rent_amount":"1000",
+"total_amount":"1500",
+"other_year_costs":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"area":"200",
+"decorate_type":3,
+"contract_term":"24",
+"room_amount":3,
+"rent_amount":"1000",
+"total_amount":"1500",
+"other_year_costs":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"area":"200",
+"decorate_type":5,
+"contract_term":"24",
+"room_amount":3,
+"rent_amount":"1000",
+"total_amount":"1500",
+"other_year_costs":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"area":"200",
+"decorate_type":6,
+"contract_term":"24",
+"room_amount":3,
+"rent_amount":"1000",
+"total_amount":"1500",
+"other_year_costs":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-业绩计算(decorate_type:2,精装修)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-业绩计算(decorate_type:3,中装修)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-业绩计算(decorate_type:5,简装修)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入申请-业绩计算(decorate_type:6,毛坯)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6924,7 +7034,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7001,6 +7111,217 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -7256,7 +7577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -7364,168 +7685,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7575,12 +7734,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -7589,10 +7748,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7813,6 +7972,168 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -7890,7 +8211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -8000,7 +8321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -8116,7 +8437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -8293,7 +8614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -8470,7 +8791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -8647,7 +8968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -8754,239 +9075,6 @@
       </c>
       <c r="I3" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="J3" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="24" style="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="J3" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="24" style="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9049,10 +9137,10 @@
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9061,10 +9149,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9079,10 +9167,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9091,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9103,7 +9191,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9284,9 +9372,242 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="32" activeTab="34"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="291">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -379,41 +379,6 @@
   </si>
   <si>
     <t>管家-租入-房源录入-新增-提交-合租（要有子房间）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"data":{
-    "rent_type":1,
-    "shop_id":2,
-    "steward_id":11960,
-    "title":"21345",
-    "room_amount":1,
-    "hall_amount":1,
-    "toilet_amount":1,
-    "house_no":"13456",
-    "house_status_id":1,
-    "house_area":134.0,
-    "house_direction_id":1,
-    "house_decorate_id":1,
-    "house_product_id":1,
-    "house_rent":11.1,
-    "house_price_id":1,
-    "house_feature_id":[1],
-    "community_id":1017669,
-    "building_name":"12312",
-    "unit_name":"2313",
-    "floor_name":"fdsf",
-    "curr_floor":1,
-    "total_floor":1,
-    "house_fee_list":{}
-}
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2595,22 +2560,6 @@
 "site_id": 1,
 "timestamp":"",
 "area":"200",
-"decorate_type":1,
-"contract_term":"24",
-"room_amount":3,
-"rent_amount":"1000",
-"total_amount":"1500",
-"other_year_costs":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"area":"200",
 "decorate_type":2,
 "contract_term":"24",
 "room_amount":3,
@@ -2682,6 +2631,81 @@
   </si>
   <si>
     <t>管家-租入-租入申请-业绩计算(decorate_type:6,毛坯)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"area":"200",
+"decorate_type":1,
+"contract_term":24,
+"room_amount":3,
+"rent_amount":"1000",
+"total_amount":"1500",
+"other_year_costs":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/loose/index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-首页（新增）
+快速发房（编辑）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-首页（新增）
+快速发房(不传houseid)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"data":{
+    "rent_type":1,
+    "shop_id":2,
+    "steward_id":11960,
+    "title":"21345",
+    "room_amount":1,
+    "hall_amount":1,
+    "toilet_amount":1,
+    "house_no":"13456",
+    "house_status_id":1,
+    "house_area":134.0,
+    "house_direction_id":1,
+    "house_decorate_id":1,
+    "house_product_id":1,
+    "house_rent":11.1,
+    "house_price_id":1,
+    "house_feature_id":[1],
+    "community_id":1017669,
+    "building_name":"12312",
+    "unit_name":"2313",
+    "floor_name":"fdsf",
+    "curr_floor":1,
+    "total_floor":1,
+    "house_fee_list":{}
+}
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3254,11 +3278,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -3266,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3429,7 +3453,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3441,7 +3465,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3470,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3499,7 +3523,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3528,7 +3552,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -3557,7 +3581,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -3586,7 +3610,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -3615,7 +3639,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -3644,7 +3668,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -3673,7 +3697,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -3702,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -3731,7 +3755,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -3760,7 +3784,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -3789,7 +3813,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -3818,7 +3842,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -3847,7 +3871,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -3876,7 +3900,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3905,7 +3929,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -3934,7 +3958,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -3963,7 +3987,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -3992,7 +4016,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -4021,7 +4045,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -4050,7 +4074,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -4079,7 +4103,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -4108,7 +4132,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -4137,7 +4161,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -4166,7 +4190,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -4195,7 +4219,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -4224,7 +4248,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -4253,7 +4277,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -4323,7 +4347,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4332,10 +4356,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4352,7 +4376,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -4361,10 +4385,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4381,7 +4405,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -4393,7 +4417,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4410,7 +4434,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -4422,7 +4446,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4439,7 +4463,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -4451,7 +4475,7 @@
         <v>53</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -4468,7 +4492,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -4480,7 +4504,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -4497,7 +4521,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -4509,7 +4533,7 @@
         <v>53</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -4657,22 +4681,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4686,11 +4710,11 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4698,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>46</v>
@@ -4715,11 +4739,11 @@
     </row>
     <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -4727,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4811,7 +4835,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4869,7 +4893,7 @@
         <v>55</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4898,7 +4922,7 @@
         <v>55</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4927,7 +4951,7 @@
         <v>55</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -4956,7 +4980,7 @@
         <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -4985,7 +5009,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -5014,7 +5038,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -5043,7 +5067,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -5072,7 +5096,7 @@
         <v>55</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -5101,7 +5125,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -5130,7 +5154,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -5159,7 +5183,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -5188,7 +5212,7 @@
         <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -5217,7 +5241,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -5246,7 +5270,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -5275,7 +5299,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -5304,7 +5328,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -5333,7 +5357,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -5362,7 +5386,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -5391,7 +5415,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -5420,7 +5444,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -5449,7 +5473,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -5478,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -5507,7 +5531,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -5536,7 +5560,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -5565,7 +5589,7 @@
         <v>55</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -5594,7 +5618,7 @@
         <v>55</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -5623,7 +5647,7 @@
         <v>55</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -5652,7 +5676,7 @@
         <v>55</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -5681,7 +5705,7 @@
         <v>55</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -5750,7 +5774,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5762,7 +5786,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5779,7 +5803,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -5791,7 +5815,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -5808,7 +5832,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -5820,7 +5844,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -5837,7 +5861,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -5849,7 +5873,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -5918,7 +5942,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5930,7 +5954,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5947,7 +5971,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -5959,7 +5983,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6028,7 +6052,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -6040,7 +6064,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6057,7 +6081,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -6069,7 +6093,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6139,7 +6163,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6151,7 +6175,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6160,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
@@ -6168,7 +6192,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -6180,16 +6204,16 @@
         <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
@@ -6197,7 +6221,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -6209,7 +6233,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -6226,7 +6250,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -6238,7 +6262,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6304,22 +6328,22 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6386,22 +6410,22 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6470,7 +6494,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6482,7 +6506,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6563,19 +6587,19 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6726,7 +6750,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6738,7 +6762,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6807,19 +6831,19 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6885,22 +6909,22 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6969,7 +6993,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6981,7 +7005,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6998,7 +7022,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -7010,7 +7034,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7080,7 +7104,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7092,7 +7116,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7114,8 +7138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7158,11 +7182,11 @@
     </row>
     <row r="2" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -7170,10 +7194,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7187,10 +7211,10 @@
     </row>
     <row r="3" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -7199,10 +7223,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7216,10 +7240,10 @@
     </row>
     <row r="4" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -7228,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7245,10 +7269,10 @@
     </row>
     <row r="5" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -7257,10 +7281,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7274,10 +7298,10 @@
     </row>
     <row r="6" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -7286,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7369,11 +7393,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -7381,10 +7405,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7398,11 +7422,11 @@
     </row>
     <row r="3" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7410,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7427,11 +7451,11 @@
     </row>
     <row r="4" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -7439,10 +7463,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7456,11 +7480,11 @@
     </row>
     <row r="5" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -7468,10 +7492,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7485,11 +7509,11 @@
     </row>
     <row r="6" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -7497,10 +7521,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7514,11 +7538,11 @@
     </row>
     <row r="7" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
@@ -7526,10 +7550,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -7543,11 +7567,11 @@
     </row>
     <row r="8" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
@@ -7555,10 +7579,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -7625,10 +7649,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7637,10 +7661,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7654,11 +7678,11 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7666,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7736,10 +7760,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -7748,10 +7772,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7832,7 +7856,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7861,7 +7885,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7919,7 +7943,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7948,7 +7972,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -8015,10 +8039,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -8027,10 +8051,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8096,10 +8120,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -8108,10 +8132,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8177,11 +8201,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -8189,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8201,7 +8225,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -8259,10 +8283,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -8271,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8283,15 +8307,15 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -8300,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8312,7 +8336,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -8368,27 +8392,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8403,22 +8427,22 @@
     </row>
     <row r="3" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8484,27 +8508,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8519,22 +8543,22 @@
     </row>
     <row r="3" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8549,22 +8573,22 @@
     </row>
     <row r="4" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -8579,22 +8603,22 @@
     </row>
     <row r="5" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -8661,27 +8685,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8696,11 +8720,11 @@
     </row>
     <row r="3" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -8708,10 +8732,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8726,11 +8750,11 @@
     </row>
     <row r="4" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -8738,10 +8762,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -8756,11 +8780,11 @@
     </row>
     <row r="5" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -8768,10 +8792,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -8838,27 +8862,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8873,11 +8897,11 @@
     </row>
     <row r="3" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -8885,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8903,11 +8927,11 @@
     </row>
     <row r="4" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -8915,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -8933,11 +8957,11 @@
     </row>
     <row r="5" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -8945,10 +8969,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -9015,27 +9039,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9050,22 +9074,22 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9132,15 +9156,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9149,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9167,10 +9191,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9179,10 +9203,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9191,7 +9215,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9203,10 +9227,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9264,7 +9288,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9293,7 +9317,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9322,7 +9346,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -9339,7 +9363,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>287</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -9348,18 +9372,47 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="F6" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9417,15 +9470,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9434,10 +9487,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9452,10 +9505,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9464,10 +9517,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9476,7 +9529,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9534,15 +9587,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9551,10 +9604,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9569,10 +9622,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9581,10 +9634,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9593,7 +9646,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9650,27 +9703,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9693,8 +9746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9752,7 +9805,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>290</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9781,7 +9834,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9810,7 +9863,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -9819,7 +9872,7 @@
         <v>1000</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
@@ -9921,7 +9974,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -10019,7 +10072,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -10031,7 +10084,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -10048,7 +10101,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -10060,7 +10113,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -10156,11 +10209,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -10168,10 +10221,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -9229,8 +9229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9288,7 +9288,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9746,8 +9746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="295">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -770,46 +770,6 @@
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"type_id":1,
-"house_id":1637120,
-"data":{
-"house_id":1637120,
-"direction":1,
-"total_floor":8,
-"curr_floor":8,
-"address":"北大荒",
-"rent_amount":2000,
-"payment_type":1,
-"free_days":0,
-"contract_term":12,
-"area":110,
-"room_amount":3,
-"hall_amount":2,
-"decorate_type":1,
-"direction":1,
-"curr_floor":8,
-"total_floor":8,
-"except_earning":9000.0,
-"ready_days":1,
-"rent_type":1,
-"rent_data":{
-    "area": ["30.00", "200.00"],
-    "amount": ["600.00", "500.00"]},
-"status":1,
-"user_id":1,
-"shop_id":2,
-"remark":"1232456"
-}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
 "type_id":2,
 "house_id":1637120,
 "data":{
@@ -1098,30 +1058,6 @@
   <si>
     <t>管家-租入-租入申请-检查房间是否可用-新代
 天通苑分散式809房间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":1,
-"house_id":1637120
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"type_id":2,
-"house_id":1637120
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2704,6 +2640,108 @@
     "curr_floor":1,
     "total_floor":1,
     "house_fee_list":{}
+}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"name":"分散式",
+"page":1,
+"page_size":2,
+"type":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-分散式社区列表-模糊查找(房源社区)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-房源录入-分散式社区列表-模糊查找（楼盘社区）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"name":"分散式",
+"page":1,
+"page_size":2,
+"type":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120,
+"lp_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":2,
+"house_id":1637120,
+"lp_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"type_id":1,
+"house_id":1637120,
+"data":{
+"house_id":1637120,
+"direction":1,
+"total_floor":8,
+"curr_floor":8,
+"address":"北大荒",
+"rent_amount":2000,
+"payment_type":1,
+"free_days":0,
+"contract_term":12,
+"area":110,
+"room_amount":3,
+"hall_amount":2,
+"decorate_type":1,
+"direction":1,
+"curr_floor":8,
+"total_floor":8,
+"except_earning":9000.0,
+"ready_days":1,
+"rent_type":1,
+"rent_data":{
+    "area": ["30.00", "200.00"],
+    "amount": ["600.00", "500.00"]},
+"status":1,
+"user_id":1,
+"shop_id":2,
+"remark":"1232456"
 }
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3278,11 +3316,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -3290,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3453,7 +3491,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3465,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3494,7 +3532,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3523,7 +3561,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3552,7 +3590,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -3581,7 +3619,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -3610,7 +3648,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -3639,7 +3677,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -3668,7 +3706,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -3697,7 +3735,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -3726,7 +3764,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -3755,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -3784,7 +3822,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -3813,7 +3851,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -3842,7 +3880,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -3871,7 +3909,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -3900,7 +3938,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3929,7 +3967,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -3958,7 +3996,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -3987,7 +4025,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -4016,7 +4054,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -4045,7 +4083,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -4074,7 +4112,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -4103,7 +4141,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -4132,7 +4170,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -4161,7 +4199,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -4190,7 +4228,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -4219,7 +4257,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -4248,7 +4286,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -4277,7 +4315,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -4347,7 +4385,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4356,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4376,7 +4414,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -4385,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4405,7 +4443,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -4417,7 +4455,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4434,7 +4472,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -4446,7 +4484,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4463,7 +4501,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -4475,7 +4513,7 @@
         <v>53</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -4492,7 +4530,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -4504,7 +4542,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -4521,7 +4559,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -4533,7 +4571,7 @@
         <v>53</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -4681,10 +4719,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4693,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4710,10 +4748,10 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -4722,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>46</v>
@@ -4739,22 +4777,22 @@
     </row>
     <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4835,7 +4873,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4893,7 +4931,7 @@
         <v>55</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4922,7 +4960,7 @@
         <v>55</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4951,7 +4989,7 @@
         <v>55</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -4980,7 +5018,7 @@
         <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -5009,7 +5047,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -5038,7 +5076,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -5067,7 +5105,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -5096,7 +5134,7 @@
         <v>55</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -5125,7 +5163,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -5154,7 +5192,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -5183,7 +5221,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -5212,7 +5250,7 @@
         <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -5241,7 +5279,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -5270,7 +5308,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -5299,7 +5337,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -5328,7 +5366,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -5357,7 +5395,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -5386,7 +5424,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -5415,7 +5453,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -5444,7 +5482,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -5473,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -5502,7 +5540,7 @@
         <v>55</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -5531,7 +5569,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -5560,7 +5598,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -5589,7 +5627,7 @@
         <v>55</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -5618,7 +5656,7 @@
         <v>55</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -5647,7 +5685,7 @@
         <v>55</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -5676,7 +5714,7 @@
         <v>55</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -5705,7 +5743,7 @@
         <v>55</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -5896,7 +5934,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5954,7 +5992,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5966,7 +6004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -5983,7 +6021,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>143</v>
+        <v>293</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6005,8 +6043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6052,7 +6090,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -6064,7 +6102,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6081,7 +6119,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -6093,7 +6131,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6163,7 +6201,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6175,7 +6213,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6192,7 +6230,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -6204,16 +6242,16 @@
         <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
@@ -6221,7 +6259,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -6233,7 +6271,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -6250,7 +6288,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -6262,7 +6300,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6328,10 +6366,10 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6343,7 +6381,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6425,7 +6463,7 @@
         <v>85</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6840,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>82</v>
@@ -6924,7 +6962,7 @@
         <v>85</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7005,7 +7043,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7034,7 +7072,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7116,7 +7154,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7182,10 +7220,10 @@
     </row>
     <row r="2" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7194,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7211,10 +7249,10 @@
     </row>
     <row r="3" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -7223,10 +7261,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7240,22 +7278,22 @@
     </row>
     <row r="4" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7269,10 +7307,10 @@
     </row>
     <row r="5" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -7281,10 +7319,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7298,10 +7336,10 @@
     </row>
     <row r="6" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -7310,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7393,11 +7431,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -7405,10 +7443,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7422,11 +7460,11 @@
     </row>
     <row r="3" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7434,10 +7472,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7451,11 +7489,11 @@
     </row>
     <row r="4" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -7463,10 +7501,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7480,11 +7518,11 @@
     </row>
     <row r="5" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -7492,10 +7530,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7509,11 +7547,11 @@
     </row>
     <row r="6" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -7521,10 +7559,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7538,11 +7576,11 @@
     </row>
     <row r="7" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
@@ -7550,10 +7588,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -7567,11 +7605,11 @@
     </row>
     <row r="8" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
@@ -7579,10 +7617,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -7649,10 +7687,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7661,10 +7699,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7678,11 +7716,11 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7690,10 +7728,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7760,10 +7798,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -7772,10 +7810,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7795,10 +7833,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7856,7 +7894,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7885,7 +7923,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7943,7 +7981,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7972,7 +8010,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7981,6 +8019,64 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8039,10 +8135,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -8051,10 +8147,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8120,10 +8216,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -8132,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8201,11 +8297,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -8213,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8225,7 +8321,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -8283,10 +8379,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -8295,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8307,15 +8403,15 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -8324,10 +8420,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8336,7 +8432,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -8392,15 +8488,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -8409,10 +8505,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8427,11 +8523,11 @@
     </row>
     <row r="3" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -8439,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8508,15 +8604,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -8525,10 +8621,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8543,22 +8639,22 @@
     </row>
     <row r="3" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8573,22 +8669,22 @@
     </row>
     <row r="4" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -8603,10 +8699,10 @@
     </row>
     <row r="5" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -8615,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -8685,15 +8781,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -8702,10 +8798,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8720,22 +8816,22 @@
     </row>
     <row r="3" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8750,22 +8846,22 @@
     </row>
     <row r="4" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -8780,10 +8876,10 @@
     </row>
     <row r="5" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -8792,10 +8888,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -8862,15 +8958,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -8879,10 +8975,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8897,22 +8993,22 @@
     </row>
     <row r="3" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8927,22 +9023,22 @@
     </row>
     <row r="4" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -8957,10 +9053,10 @@
     </row>
     <row r="5" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -8969,10 +9065,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -9039,15 +9135,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9056,10 +9152,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9074,22 +9170,22 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9156,15 +9252,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9173,10 +9269,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9191,10 +9287,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9203,10 +9299,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9215,7 +9311,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9229,7 +9325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -9288,7 +9384,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9317,7 +9413,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9346,7 +9442,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -9363,7 +9459,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -9372,10 +9468,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -9392,7 +9488,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -9404,7 +9500,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -9470,15 +9566,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9487,10 +9583,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9505,10 +9601,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9517,10 +9613,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9529,7 +9625,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9587,15 +9683,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9604,10 +9700,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9622,10 +9718,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9634,10 +9730,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9646,7 +9742,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9703,15 +9799,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9720,10 +9816,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9805,7 +9901,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9834,7 +9930,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9974,7 +10070,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -10209,11 +10305,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -10221,10 +10317,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="296">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2746,12 +2746,15 @@
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>获取房间信息失败</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2794,6 +2797,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2846,7 +2856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2883,6 +2893,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6043,7 +6056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -10011,8 +10024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10105,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="8">
-        <v>2001</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>50</v>
+        <v>1000</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -282,17 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id ":12345678
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>房间信息不存在</t>
   </si>
   <si>
@@ -2748,6 +2737,17 @@
   </si>
   <si>
     <t>获取房间信息失败</t>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id ":12345678
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3329,11 +3329,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3516,7 +3516,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -4154,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -4395,10 +4395,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4407,10 +4407,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4453,10 +4453,10 @@
     </row>
     <row r="4" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -4465,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4482,22 +4482,22 @@
     </row>
     <row r="5" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="6" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="7" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -4552,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -4569,10 +4569,10 @@
     </row>
     <row r="8" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -4581,10 +4581,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -4732,22 +4732,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4761,11 +4761,11 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>46</v>
@@ -4790,11 +4790,11 @@
     </row>
     <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -4802,10 +4802,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4871,11 +4871,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -4883,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4900,22 +4900,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4929,11 +4929,11 @@
     </row>
     <row r="4" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -4941,10 +4941,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4958,11 +4958,11 @@
     </row>
     <row r="5" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4970,10 +4970,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4987,11 +4987,11 @@
     </row>
     <row r="6" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -4999,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -5016,11 +5016,11 @@
     </row>
     <row r="7" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
@@ -5028,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -5045,11 +5045,11 @@
     </row>
     <row r="8" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5057,10 +5057,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -5074,11 +5074,11 @@
     </row>
     <row r="9" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -5086,10 +5086,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -5103,11 +5103,11 @@
     </row>
     <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
@@ -5115,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -5132,11 +5132,11 @@
     </row>
     <row r="11" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5144,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -5161,11 +5161,11 @@
     </row>
     <row r="12" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
@@ -5173,10 +5173,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -5190,11 +5190,11 @@
     </row>
     <row r="13" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
@@ -5202,10 +5202,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -5219,11 +5219,11 @@
     </row>
     <row r="14" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5231,10 +5231,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -5248,11 +5248,11 @@
     </row>
     <row r="15" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
@@ -5260,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -5277,11 +5277,11 @@
     </row>
     <row r="16" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
@@ -5289,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -5306,11 +5306,11 @@
     </row>
     <row r="17" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5318,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -5335,11 +5335,11 @@
     </row>
     <row r="18" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -5364,11 +5364,11 @@
     </row>
     <row r="19" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -5393,11 +5393,11 @@
     </row>
     <row r="20" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
@@ -5405,10 +5405,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -5422,11 +5422,11 @@
     </row>
     <row r="21" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
@@ -5434,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -5451,11 +5451,11 @@
     </row>
     <row r="22" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
@@ -5463,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -5480,11 +5480,11 @@
     </row>
     <row r="23" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
@@ -5492,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -5509,11 +5509,11 @@
     </row>
     <row r="24" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
@@ -5521,10 +5521,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -5538,11 +5538,11 @@
     </row>
     <row r="25" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
@@ -5550,10 +5550,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -5567,11 +5567,11 @@
     </row>
     <row r="26" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
@@ -5579,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -5596,11 +5596,11 @@
     </row>
     <row r="27" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
@@ -5608,10 +5608,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -5625,11 +5625,11 @@
     </row>
     <row r="28" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
@@ -5637,10 +5637,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -5654,11 +5654,11 @@
     </row>
     <row r="29" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
@@ -5666,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -5683,11 +5683,11 @@
     </row>
     <row r="30" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
@@ -5695,10 +5695,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -5712,11 +5712,11 @@
     </row>
     <row r="31" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
@@ -5724,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -5741,11 +5741,11 @@
     </row>
     <row r="32" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5837,7 +5837,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5854,7 +5854,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -5866,7 +5866,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -5895,7 +5895,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -5924,7 +5924,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6005,7 +6005,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -6034,7 +6034,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6103,7 +6103,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -6115,7 +6115,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -6144,7 +6144,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6226,7 +6226,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
@@ -6243,7 +6243,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -6255,16 +6255,16 @@
         <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
@@ -6272,7 +6272,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -6284,7 +6284,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -6313,7 +6313,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6379,22 +6379,22 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6461,22 +6461,22 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6557,7 +6557,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6638,19 +6638,19 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6813,7 +6813,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6882,19 +6882,19 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6960,22 +6960,22 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7044,7 +7044,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7056,7 +7056,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -7085,7 +7085,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7167,7 +7167,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7233,11 +7233,11 @@
     </row>
     <row r="2" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -7245,10 +7245,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7262,10 +7262,10 @@
     </row>
     <row r="3" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -7274,10 +7274,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7291,10 +7291,10 @@
     </row>
     <row r="4" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -7303,10 +7303,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7320,10 +7320,10 @@
     </row>
     <row r="5" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="6" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -7361,10 +7361,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7444,11 +7444,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7473,11 +7473,11 @@
     </row>
     <row r="3" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7485,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7502,11 +7502,11 @@
     </row>
     <row r="4" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -7514,10 +7514,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7531,11 +7531,11 @@
     </row>
     <row r="5" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -7543,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7560,11 +7560,11 @@
     </row>
     <row r="6" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -7572,10 +7572,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7589,11 +7589,11 @@
     </row>
     <row r="7" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
@@ -7601,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -7618,11 +7618,11 @@
     </row>
     <row r="8" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
@@ -7630,10 +7630,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -7700,10 +7700,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7712,10 +7712,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7729,11 +7729,11 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7741,10 +7741,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7811,10 +7811,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -7823,10 +7823,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7907,7 +7907,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7953,7 +7953,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -7965,7 +7965,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7982,7 +7982,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -7994,7 +7994,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -8011,7 +8011,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -8023,7 +8023,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -8040,7 +8040,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -8052,7 +8052,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -8081,7 +8081,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -8148,10 +8148,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -8160,10 +8160,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8229,10 +8229,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -8241,10 +8241,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8310,11 +8310,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -8322,10 +8322,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8334,7 +8334,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -8392,10 +8392,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -8404,10 +8404,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8416,15 +8416,15 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -8433,10 +8433,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8445,7 +8445,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -8501,27 +8501,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8536,22 +8536,22 @@
     </row>
     <row r="3" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8617,27 +8617,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8652,22 +8652,22 @@
     </row>
     <row r="3" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8682,22 +8682,22 @@
     </row>
     <row r="4" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -8712,22 +8712,22 @@
     </row>
     <row r="5" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -8794,27 +8794,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8829,11 +8829,11 @@
     </row>
     <row r="3" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -8841,10 +8841,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8859,11 +8859,11 @@
     </row>
     <row r="4" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -8871,10 +8871,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -8889,11 +8889,11 @@
     </row>
     <row r="5" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -8901,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -8971,27 +8971,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9006,11 +9006,11 @@
     </row>
     <row r="3" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9036,11 +9036,11 @@
     </row>
     <row r="4" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -9048,10 +9048,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -9066,11 +9066,11 @@
     </row>
     <row r="5" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9078,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -9148,27 +9148,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9183,22 +9183,22 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9265,15 +9265,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9282,10 +9282,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9300,10 +9300,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9312,10 +9312,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9385,7 +9385,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9397,7 +9397,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9414,7 +9414,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9426,7 +9426,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9443,7 +9443,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -9455,7 +9455,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>2001</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9472,7 +9472,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -9481,10 +9481,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -9513,7 +9513,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -9579,15 +9579,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9596,10 +9596,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9614,10 +9614,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9626,10 +9626,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9696,15 +9696,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9731,10 +9731,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9743,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9755,7 +9755,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9812,27 +9812,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9899,10 +9899,10 @@
     </row>
     <row r="2" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>45</v>
@@ -9911,10 +9911,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9928,10 +9928,10 @@
     </row>
     <row r="3" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -9940,10 +9940,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9957,10 +9957,10 @@
     </row>
     <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>1000</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
@@ -9998,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -10025,7 +10025,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10083,7 +10083,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>49</v>
+        <v>295</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -10178,10 +10178,10 @@
     </row>
     <row r="2" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -10207,10 +10207,10 @@
     </row>
     <row r="3" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -10219,10 +10219,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -10318,11 +10318,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -10330,10 +10330,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="34" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -7656,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -9338,8 +9338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9397,7 +9397,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -10024,7 +10024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="34" activeTab="37"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="home_menu" sheetId="10" r:id="rId1"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/rent/home/menu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>guanjia_home_menu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2747,6 +2743,10 @@
 "admin_id":15658,
 "house_id ":12345678
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/home/menu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3203,8 +3203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>36</v>
@@ -3259,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3329,11 +3329,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -3516,7 +3516,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -4154,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -4395,10 +4395,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -4407,10 +4407,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4453,10 +4453,10 @@
     </row>
     <row r="4" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -4465,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4482,22 +4482,22 @@
     </row>
     <row r="5" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="6" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="7" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -4552,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -4569,10 +4569,10 @@
     </row>
     <row r="8" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -4581,10 +4581,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -4732,22 +4732,22 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4761,11 +4761,11 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4773,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4790,11 +4790,11 @@
     </row>
     <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -4802,10 +4802,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4871,11 +4871,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -4883,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4900,22 +4900,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -4929,11 +4929,11 @@
     </row>
     <row r="4" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -4941,10 +4941,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -4958,11 +4958,11 @@
     </row>
     <row r="5" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4970,10 +4970,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -4987,11 +4987,11 @@
     </row>
     <row r="6" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -4999,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -5016,11 +5016,11 @@
     </row>
     <row r="7" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
@@ -5028,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -5045,11 +5045,11 @@
     </row>
     <row r="8" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5057,10 +5057,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -5074,11 +5074,11 @@
     </row>
     <row r="9" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -5086,10 +5086,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -5103,11 +5103,11 @@
     </row>
     <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
@@ -5115,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -5132,11 +5132,11 @@
     </row>
     <row r="11" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5144,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -5161,11 +5161,11 @@
     </row>
     <row r="12" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
@@ -5173,10 +5173,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -5190,11 +5190,11 @@
     </row>
     <row r="13" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
@@ -5202,10 +5202,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -5219,11 +5219,11 @@
     </row>
     <row r="14" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5231,10 +5231,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -5248,11 +5248,11 @@
     </row>
     <row r="15" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
@@ -5260,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -5277,11 +5277,11 @@
     </row>
     <row r="16" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
@@ -5289,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -5306,11 +5306,11 @@
     </row>
     <row r="17" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5318,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -5335,11 +5335,11 @@
     </row>
     <row r="18" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -5364,11 +5364,11 @@
     </row>
     <row r="19" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -5393,11 +5393,11 @@
     </row>
     <row r="20" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
@@ -5405,10 +5405,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -5422,11 +5422,11 @@
     </row>
     <row r="21" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
@@ -5434,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -5451,11 +5451,11 @@
     </row>
     <row r="22" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
@@ -5463,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -5480,11 +5480,11 @@
     </row>
     <row r="23" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
@@ -5492,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -5509,11 +5509,11 @@
     </row>
     <row r="24" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
@@ -5521,10 +5521,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -5538,11 +5538,11 @@
     </row>
     <row r="25" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
@@ -5550,10 +5550,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -5567,11 +5567,11 @@
     </row>
     <row r="26" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
@@ -5579,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -5596,11 +5596,11 @@
     </row>
     <row r="27" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
@@ -5608,10 +5608,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -5625,11 +5625,11 @@
     </row>
     <row r="28" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
@@ -5637,10 +5637,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -5654,11 +5654,11 @@
     </row>
     <row r="29" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
@@ -5666,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -5683,11 +5683,11 @@
     </row>
     <row r="30" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
@@ -5695,10 +5695,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -5712,11 +5712,11 @@
     </row>
     <row r="31" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
@@ -5724,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -5741,11 +5741,11 @@
     </row>
     <row r="32" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -5837,7 +5837,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5854,7 +5854,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -5866,7 +5866,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -5895,7 +5895,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -5924,7 +5924,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6005,7 +6005,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -6034,7 +6034,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6103,7 +6103,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -6115,7 +6115,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -6144,7 +6144,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6226,7 +6226,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
@@ -6243,7 +6243,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -6255,16 +6255,16 @@
         <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
@@ -6272,7 +6272,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -6284,7 +6284,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -6313,7 +6313,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6379,22 +6379,22 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6461,22 +6461,22 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6557,7 +6557,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6638,19 +6638,19 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6731,7 +6731,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -6813,7 +6813,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6882,19 +6882,19 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6960,22 +6960,22 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7044,7 +7044,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7056,7 +7056,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -7085,7 +7085,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7167,7 +7167,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7233,11 +7233,11 @@
     </row>
     <row r="2" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -7245,10 +7245,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7262,10 +7262,10 @@
     </row>
     <row r="3" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -7274,10 +7274,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7291,10 +7291,10 @@
     </row>
     <row r="4" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -7303,10 +7303,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7320,10 +7320,10 @@
     </row>
     <row r="5" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="6" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -7361,10 +7361,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7444,11 +7444,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7473,11 +7473,11 @@
     </row>
     <row r="3" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7485,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7502,11 +7502,11 @@
     </row>
     <row r="4" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -7514,10 +7514,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7531,11 +7531,11 @@
     </row>
     <row r="5" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -7543,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -7560,11 +7560,11 @@
     </row>
     <row r="6" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -7572,10 +7572,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7589,11 +7589,11 @@
     </row>
     <row r="7" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
@@ -7601,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -7618,11 +7618,11 @@
     </row>
     <row r="8" spans="1:9" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
@@ -7630,10 +7630,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -7656,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -7700,10 +7700,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -7712,10 +7712,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7729,11 +7729,11 @@
     </row>
     <row r="3" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7741,10 +7741,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7811,10 +7811,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -7823,10 +7823,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7907,7 +7907,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -7953,7 +7953,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -7965,7 +7965,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -7982,7 +7982,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -7994,7 +7994,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -8011,7 +8011,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -8023,7 +8023,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -8040,7 +8040,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -8052,7 +8052,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -8081,7 +8081,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -8148,10 +8148,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -8160,10 +8160,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8229,10 +8229,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -8241,10 +8241,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8310,11 +8310,11 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -8322,10 +8322,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8334,7 +8334,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -8392,10 +8392,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -8404,10 +8404,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8416,15 +8416,15 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -8433,10 +8433,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8445,7 +8445,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -8501,27 +8501,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8536,22 +8536,22 @@
     </row>
     <row r="3" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8617,27 +8617,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8652,22 +8652,22 @@
     </row>
     <row r="3" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8682,22 +8682,22 @@
     </row>
     <row r="4" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -8712,22 +8712,22 @@
     </row>
     <row r="5" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -8794,27 +8794,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8829,11 +8829,11 @@
     </row>
     <row r="3" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -8841,10 +8841,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8859,11 +8859,11 @@
     </row>
     <row r="4" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -8871,10 +8871,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -8889,11 +8889,11 @@
     </row>
     <row r="5" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -8901,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -8971,27 +8971,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9006,11 +9006,11 @@
     </row>
     <row r="3" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9036,11 +9036,11 @@
     </row>
     <row r="4" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -9048,10 +9048,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -9066,11 +9066,11 @@
     </row>
     <row r="5" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9078,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -9148,27 +9148,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9183,22 +9183,22 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9265,15 +9265,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9282,10 +9282,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9300,10 +9300,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9312,10 +9312,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9382,10 +9382,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9394,10 +9394,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9411,10 +9411,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9423,10 +9423,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9435,15 +9435,15 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -9452,10 +9452,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -9464,15 +9464,15 @@
         <v>2001</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -9481,10 +9481,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -9498,22 +9498,22 @@
     </row>
     <row r="6" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -9579,15 +9579,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9596,10 +9596,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9614,10 +9614,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9626,10 +9626,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9696,15 +9696,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9731,10 +9731,10 @@
     </row>
     <row r="3" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -9743,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9755,7 +9755,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -9812,27 +9812,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9899,22 +9899,22 @@
     </row>
     <row r="2" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -9928,10 +9928,10 @@
     </row>
     <row r="3" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -9940,10 +9940,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -9957,10 +9957,10 @@
     </row>
     <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -9981,27 +9981,27 @@
         <v>1000</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -10068,10 +10068,10 @@
     </row>
     <row r="2" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -10080,10 +10080,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -10097,10 +10097,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -10178,10 +10178,10 @@
     </row>
     <row r="2" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -10207,10 +10207,10 @@
     </row>
     <row r="3" spans="1:9" ht="386.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -10219,10 +10219,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -10236,10 +10236,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
@@ -10248,10 +10248,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -10318,11 +10318,11 @@
     </row>
     <row r="2" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -10330,10 +10330,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/app_v2.0.xlsx
+++ b/testData/case/app_v2.0.xlsx
@@ -3204,7 +3204,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
